--- a/spreadsheet/macrofree/waf.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf.zh-Hant.xlsx
@@ -943,7 +943,7 @@
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>如果需要 AKS Windows 工作負載，可以使用 HostProcess 容器</t>
+          <t>如果 AKS Windows 工作負載需要，可以使用 HostProcess 容器</t>
         </is>
       </c>
       <c r="E8" s="18" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D14" s="18" t="inlineStr">
         <is>
-          <t>使用外部應用程式（如 kubecost）將成本分配給不同的使用者</t>
+          <t>使用外部應用（如 kubecost）將成本分配給不同的使用者</t>
         </is>
       </c>
       <c r="E14" s="18" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>使用縮減模式刪除/去分配節點</t>
+          <t>使用縮減模式刪除/取消分配節點</t>
         </is>
       </c>
       <c r="E15" s="18" t="n"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D16" s="18" t="inlineStr">
         <is>
-          <t>需要時，在 AKS 群集上使用多實例分區 GPU</t>
+          <t>需要時，請在 AKS 群集上使用多實例分組 GPU</t>
         </is>
       </c>
       <c r="E16" s="18" t="n"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D17" s="18" t="inlineStr">
         <is>
-          <t>如果運行開發/測試群集，請使用 NodePool 啟動/停止</t>
+          <t>如果運行開發/測試群集，請使用 NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E17" s="18" t="n"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D20" s="18" t="inlineStr">
         <is>
-          <t>將污點添加到系統節點池以使其專用</t>
+          <t>向系統節點池添加污點以使其專用</t>
         </is>
       </c>
       <c r="E20" s="18" t="n"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D23" s="18" t="inlineStr">
         <is>
-          <t>定義應用程式分離要求（命名空間/節點池/群集）</t>
+          <t>定義應用分離要求（命名空間/節點池/集群）</t>
         </is>
       </c>
       <c r="E23" s="18" t="n"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>如果對群集使用服務主體，請定期（如每季度）刷新憑據</t>
+          <t>如果將服務主體用於群集，請定期刷新憑據（如每季度）</t>
         </is>
       </c>
       <c r="E25" s="18" t="n"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>將身份驗證與 AAD 集成（使用託管集成）Integrate authentication with AAD （using the managed integration）</t>
+          <t>將身份驗證與 AAD（使用託管集成）集成</t>
         </is>
       </c>
       <c r="E30" s="18" t="n"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D35" s="18" t="inlineStr">
         <is>
-          <t>對於 AKS 非互動式登錄，請使用 kubelogin（預覽版）</t>
+          <t>對於 AKS 非互動式登錄名，請使用 kubelogin（預覽版）</t>
         </is>
       </c>
       <c r="E35" s="18" t="n"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D37" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請進行配置：即時群集訪問Configure if required Just-in-time cluster access</t>
+          <t>如果需要，請配置 Just-in-time 群集訪問</t>
         </is>
       </c>
       <c r="E37" s="18" t="n"/>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D38" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請為 AKS 配置 AAD 條件存取</t>
+          <t>如果需要，為 AKS 配置 AAD 條件訪問</t>
         </is>
       </c>
       <c r="E38" s="18" t="n"/>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D39" s="18" t="inlineStr">
         <is>
-          <t>如果需要 Windows AKS 工作負載，請配置 gMSA</t>
+          <t>如果 Windows AKS 工作負載需要，請配置 gMSA</t>
         </is>
       </c>
       <c r="E39" s="18" t="n"/>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D40" s="18" t="inlineStr">
         <is>
-          <t>為了進行更精細的控制，請考慮使用託管的 Kubelet 標識</t>
+          <t>為了獲得更精細的控制，請考慮使用託管的 Kubelet 身份</t>
         </is>
       </c>
       <c r="E40" s="18" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D41" s="18" t="inlineStr">
         <is>
-          <t>如果使用 AGIC，請不要在群集之間共用 AppGW</t>
+          <t>如果使用 AGIC，請勿跨集群共用 AppGW</t>
         </is>
       </c>
       <c r="E41" s="18" t="n"/>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D42" s="18" t="inlineStr">
         <is>
-          <t>請勿使用 AKS 應用程式路由載入項</t>
+          <t>不要使用 AKS HTTP 路由載入項，而是將託管 NGINX 入口與應用程式路由載入項一起使用。</t>
         </is>
       </c>
       <c r="E42" s="18" t="n"/>
@@ -2777,11 +2777,7 @@
         </is>
       </c>
       <c r="J43" s="13" t="n"/>
-      <c r="K43" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K43" s="19" t="n"/>
       <c r="L43" s="19" t="inlineStr">
         <is>
           <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
@@ -3023,7 +3019,7 @@
       </c>
       <c r="D48" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請根據每個節點的最大 Pod 數相應地調整子網大小</t>
+          <t>如果使用 Azure CNI，請根據每個節點的最大 Pod 數相應地調整子網的大小</t>
         </is>
       </c>
       <c r="E48" s="18" t="n"/>
@@ -3074,7 +3070,7 @@
       </c>
       <c r="D49" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請檢查最大 Pod/節點數（預設為 30）</t>
+          <t>如果使用 Azure CNI，請檢查每個節點的最大 Pod 數（預設為 30）</t>
         </is>
       </c>
       <c r="E49" s="18" t="n"/>
@@ -3125,12 +3121,12 @@
       </c>
       <c r="D50" s="18" t="inlineStr">
         <is>
-          <t>如果使用專用 IP 負載均衡器服務，請使用專用子網（而不是 AKS 子網）</t>
+          <t>如果使用專用IP LoadBalancer服務，請使用專用子網（而不是 AKS 子網）</t>
         </is>
       </c>
       <c r="E50" s="18" t="inlineStr">
         <is>
-          <t>對於內部應用，組織通常會在其防火牆中打開整個AKS子網。這也會打開對節點的網路訪問，也可能打開對 Pod 的網路訪問（如果使用 Azure CNI）。如果 LoadBalancer IP 位於不同的子網中，則只有此 IP 可供應用用戶端使用。另一個原因是，如果 AKS 子網中的 IP 位址是稀缺資源，則將其 IP 位址用於服務將降低群集的最大可伸縮性。</t>
+          <t>對於內部應用，組織通常會在其防火牆中打開整個AKS子網。這也會打開對節點的網路訪問，並可能打開對 Pod 的訪問（如果使用 Azure CNI）。如果 LoadBalancer IP 位於不同的子網中，則只有此子網可供應用用戶端使用。另一個原因是，如果 AKS 子網中的 IP 位址是稀缺資源，則將其 IP 位址用於服務會降低群集的最大可伸縮性。</t>
         </is>
       </c>
       <c r="F50" s="18" t="inlineStr">
@@ -3282,7 +3278,7 @@
       </c>
       <c r="D53" s="18" t="inlineStr">
         <is>
-          <t>如果需要，請在 AKS 中設定每個節點的公共 IP（如果需要）</t>
+          <t>如果需要，請在 AKS 中配置每個節點的公共 IP</t>
         </is>
       </c>
       <c r="E53" s="18" t="n"/>
@@ -3384,7 +3380,7 @@
       </c>
       <c r="D55" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure NAT 閘道作為 outboundType 縮放出口流量</t>
+          <t>使用 Azure NAT 閘道作為 outboundType 來縮放出口流量</t>
         </is>
       </c>
       <c r="E55" s="18" t="n"/>
@@ -3486,7 +3482,7 @@
       </c>
       <c r="D57" s="18" t="inlineStr">
         <is>
-          <t>如果安全要求，請使用 AzFW/NVA 篩選出口流量</t>
+          <t>如果安全要求要求，請使用 AzFW/NVA 篩選出口流量</t>
         </is>
       </c>
       <c r="E57" s="18" t="n"/>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="D58" s="18" t="inlineStr">
         <is>
-          <t>如果使用公有 API 終端節點，請限制可以存取它的 IP 位址</t>
+          <t>如果使用公共 API 終端節點，請限制可以存取它的 IP 位址</t>
         </is>
       </c>
       <c r="E58" s="18" t="n"/>
@@ -3596,7 +3592,7 @@
       </c>
       <c r="D59" s="18" t="inlineStr">
         <is>
-          <t>如果要求使用專用群集，請使用專用群集</t>
+          <t>如果要求要求，請使用私有集群</t>
         </is>
       </c>
       <c r="E59" s="18" t="n"/>
@@ -4024,7 +4020,7 @@
       </c>
       <c r="D67" s="18" t="inlineStr">
         <is>
-          <t>針對最關鍵的指標配置警報（有關建議，請參閱容器見解）</t>
+          <t>設定有關最關鍵指標的警報（請參閱容器見解以獲取建議）</t>
         </is>
       </c>
       <c r="E67" s="18" t="n"/>
@@ -4075,7 +4071,7 @@
       </c>
       <c r="D68" s="18" t="inlineStr">
         <is>
-          <t>定期查看 Azure 顧問，以獲取有關群集的建議</t>
+          <t>定期查看 Azure 顧問，瞭解有關群集的建議</t>
         </is>
       </c>
       <c r="E68" s="18" t="n"/>
@@ -4228,7 +4224,7 @@
       </c>
       <c r="D71" s="18" t="inlineStr">
         <is>
-          <t>如果不使用 node-image 升級，請使用 kured 進行 Linux 節點升級</t>
+          <t>如果您不使用 node-image 升級，請使用 kured 進行 Linux 節點升級</t>
         </is>
       </c>
       <c r="E71" s="18" t="n"/>
@@ -4330,7 +4326,7 @@
       </c>
       <c r="D73" s="18" t="inlineStr">
         <is>
-          <t>考慮將應用程式或集群配置部署到多個集群的 gitops</t>
+          <t>考慮使用 gitops 將應用程式或集群配置部署到多個集群</t>
         </is>
       </c>
       <c r="E73" s="18" t="n"/>
@@ -4381,7 +4377,7 @@
       </c>
       <c r="D74" s="18" t="inlineStr">
         <is>
-          <t>考慮在專用群集上使用 AKS 命令調用</t>
+          <t>請考慮在專用群集上使用 AKS 命令調用</t>
         </is>
       </c>
       <c r="E74" s="18" t="n"/>
@@ -4432,7 +4428,7 @@
       </c>
       <c r="D75" s="18" t="inlineStr">
         <is>
-          <t>對於計劃內的事件，請考慮使用節點自動排水</t>
+          <t>對於計劃的事件，請考慮使用 Node Auto Drain</t>
         </is>
       </c>
       <c r="E75" s="18" t="n"/>
@@ -4483,7 +4479,7 @@
       </c>
       <c r="D76" s="18" t="inlineStr">
         <is>
-          <t>制定自己的治理實踐，以確保節點 RG（又名“infra RG”）中的操作員不執行任何更改</t>
+          <t>開發自己的治理實踐，以確保節點 RG（又名“基礎設施 RG”）中的操作員不會執行任何更改</t>
         </is>
       </c>
       <c r="E76" s="18" t="n"/>
@@ -4589,7 +4585,7 @@
       </c>
       <c r="D78" s="18" t="inlineStr">
         <is>
-          <t>不要在 YAML 清單中使用已棄用的 Kubernetes API</t>
+          <t>請勿在 YAML 清單中使用已棄用的 Kubernetes API</t>
         </is>
       </c>
       <c r="E78" s="18" t="n"/>
@@ -4640,7 +4636,7 @@
       </c>
       <c r="D79" s="18" t="inlineStr">
         <is>
-          <t>污點 Windows 節點</t>
+          <t>污染 Windows 節點</t>
         </is>
       </c>
       <c r="E79" s="18" t="n"/>
@@ -4742,7 +4738,7 @@
       </c>
       <c r="D81" s="18" t="inlineStr">
         <is>
-          <t>將主日誌（也稱為 API 紀錄）發送到 Azure Monitor 或首選日誌管理解決方案</t>
+          <t>將主日誌（又名 API 紀錄）發送到 Azure Monitor 或首選日誌管理解決方案</t>
         </is>
       </c>
       <c r="E81" s="18" t="inlineStr">
@@ -4848,7 +4844,7 @@
       </c>
       <c r="D83" s="18" t="inlineStr">
         <is>
-          <t>考慮將現成節點池用於非時間敏感型工作負載</t>
+          <t>考慮將現成節點池用於對時間敏感的工作負載</t>
         </is>
       </c>
       <c r="E83" s="18" t="n"/>
@@ -4899,7 +4895,7 @@
       </c>
       <c r="D84" s="18" t="inlineStr">
         <is>
-          <t>考慮使用用於快速突發的 AKS 虛擬節點</t>
+          <t>考慮用於快速突發的 AKS 虛擬節點</t>
         </is>
       </c>
       <c r="E84" s="18" t="n"/>
@@ -5111,7 +5107,7 @@
       </c>
       <c r="D88" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請監視每個節點使用的 Pod IP 百分比</t>
+          <t>如果使用 Azure CNI，請監視每個節點消耗的 Pod IP 的百分比</t>
         </is>
       </c>
       <c r="E88" s="18" t="n"/>
@@ -5167,7 +5163,7 @@
       </c>
       <c r="E89" s="18" t="inlineStr">
         <is>
-          <t>OS 磁碟上的 I/O 是關鍵資源。如果節點中的OS在I/O上受到限制，這可能會導致不可預知的行為，通常最終導致節點被聲明為 NotReady</t>
+          <t>OS 磁碟上的 I/O 是關鍵資源。如果節點中的操作系統在 I/O 上受到限制，這可能會導致不可預知的行為，通常最終導致節點被聲明為 NotReady</t>
         </is>
       </c>
       <c r="F89" s="18" t="inlineStr">
@@ -5319,7 +5315,7 @@
       </c>
       <c r="D92" s="18" t="inlineStr">
         <is>
-          <t>在容器規範中配置請求和限制</t>
+          <t>在 Pod 規範中配置請求和限制</t>
         </is>
       </c>
       <c r="E92" s="18" t="n"/>
@@ -5638,7 +5634,7 @@
       </c>
       <c r="E98" s="18" t="inlineStr">
         <is>
-          <t>較大的節點將帶來更高的性能和功能，例如臨時磁碟和加速網路，但它們會增加爆炸半徑並降低擴展粒度</t>
+          <t>更大的節點將帶來更高的性能和功能，例如臨時磁碟和加速網路，但它們會增加爆炸半徑並降低擴展粒度</t>
         </is>
       </c>
       <c r="F98" s="18" t="inlineStr">
@@ -5739,7 +5735,7 @@
       </c>
       <c r="D100" s="18" t="inlineStr">
         <is>
-          <t>考慮訂閱 AKS 自動化的 EventGrid 事件</t>
+          <t>考慮訂閱 EventGrid Events for AKS 自動化</t>
         </is>
       </c>
       <c r="E100" s="18" t="n"/>
@@ -5947,7 +5943,7 @@
       </c>
       <c r="D104" s="18" t="inlineStr">
         <is>
-          <t>對於非臨時磁碟，在運行多個 Pod/節點時，請對節點使用高 IOPS 和較大的 OS 磁碟，因為它需要高性能才能運行多個 Pod，並且會生成具有預設 AKS 日誌輪換閾值的大量日誌</t>
+          <t>對於非臨時磁碟，在運行多個 Pod/節點時，請為節點使用高 IOPS 和更大的 OS 磁碟，因為它需要高性能才能運行多個 Pod，並且會生成具有預設 AKS 日誌輪換閾值的大量日誌</t>
         </is>
       </c>
       <c r="E104" s="18" t="n"/>
@@ -5998,7 +5994,7 @@
       </c>
       <c r="D105" s="18" t="inlineStr">
         <is>
-          <t>對於超高性能儲存選項，請在 AKS 上使用超級磁碟</t>
+          <t>對於超高性能存儲選項，請在 AKS 上使用超級磁碟For hyper performance storage option use Ultra Disks on AKS</t>
         </is>
       </c>
       <c r="E105" s="18" t="n"/>
@@ -6100,7 +6096,7 @@
       </c>
       <c r="D107" s="18" t="inlineStr">
         <is>
-          <t>如果使用 AzFiles Standard，請考慮 AzFiles Premium 和/或 ANF 以達到性能原因</t>
+          <t>如果使用 AzFiles Standard，出於性能原因，請考慮使用 AzFiles Premium 和/或 ANF</t>
         </is>
       </c>
       <c r="E107" s="18" t="n"/>
@@ -6151,7 +6147,7 @@
       </c>
       <c r="D108" s="18" t="inlineStr">
         <is>
-          <t>如果使用 Azure 磁碟和 AZ，請考慮在 LRS 磁碟的區域中設置節點池，並使用 VolumeBindingMode：WaitForFirstConsumer 在正確的區域中預配存儲，或者將 ZRS 磁碟用於跨多個區域的節點池</t>
+          <t>如果使用 Azure 磁碟和可用區，請考慮在區域內為 LRS 磁碟設置節點池，並使用 VolumeBindingMode：WaitForFirstConsumer 在正確的區域中預配存儲，或將 ZRS 磁碟用於跨多個區域的節點池</t>
         </is>
       </c>
       <c r="E108" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf.zh-Hant.xlsx
@@ -21129,7 +21129,7 @@
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>如果將客戶管理的 TLS 證書用於 Azure Front Door，請使用“最新”證書版本。降低手動證書續訂導致的中斷風險</t>
+          <t>如果將客戶管理的 TLS 證書用於 Azure Front Door，請使用“最新”證書版本。降低手動續訂證書導致的中斷風險</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21294,7 +21294,7 @@
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>確保您的負載均衡器前端IP位址是區域冗餘的（除非您需要區域前端）。</t>
+          <t>確保負載均衡器前端IP位址是區域冗餘的（除非需要區域性前端）。</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
@@ -21404,12 +21404,12 @@
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>部署 Azure 應用程式閘道 v2 或合作夥伴 NVA，用於在登陸區域虛擬網路中代理入站 HTTP（S） 連接，並使用它們保護的應用。</t>
+          <t>部署 Azure 應用程式閘道 v2 或合作夥伴 NVA，用於在登陸區域虛擬網路中代理入站 HTTP（S） 連接，並使用它們所保護的應用。</t>
         </is>
       </c>
       <c r="E407" s="18" t="inlineStr">
         <is>
-          <t>一般而言，反向代理（尤其是 WAF）的管理更接近應用程式而不是網路，因此它們與應用程式屬於同一訂閱。如果應用程式閘道和 WAF 由一個團隊管理，則可以將應用程式閘道和 WAF 集中到連接訂閱中。</t>
+          <t>一般而言，反向代理的管理，特別是 WAF 的管理更接近應用程式而不是網路，因此它們與應用程式屬於同一訂閱。如果應用程式閘道和 WAF 由單個團隊管理，則在連接訂閱中集中應用程式閘道和 WAF 可能是可以的。</t>
         </is>
       </c>
       <c r="F407" s="18" t="inlineStr">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>配置自動縮放，最小實例數為 2。</t>
+          <t>使用至少兩個實例數配置自動縮放。</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21636,7 +21636,7 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>將 Azure Front Door 與 WAF 策略結合使用，以交付和幫助保護跨多個 Azure 區域的全球 HTTP/S 應用。</t>
+          <t>將 Azure Front Door 與 WAF 策略配合使用，以交付和幫助保護跨多個 Azure 區域的全域 HTTP/S 應用。</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>使用流量管理器交付跨 HTTP/S 以外的協定的全域應用。</t>
+          <t>使用流量管理器提供跨 HTTP/S 以外的協定的全域應用。</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -21801,7 +21801,7 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>如果使用者只需要存取內部應用程式，是否將 Microsoft Entra ID 應用程式代理視為 Azure 虛擬桌面 （AVD） 的替代方案？</t>
+          <t>如果使用者只需要訪問內部應用程式，是否考慮將 Microsoft Entra ID 應用程式代理作為 Azure 虛擬桌面 （AVD） 的替代方法？</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -21911,7 +21911,7 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>在「預防」模式下部署 Front Door 的 WAF 配置檔。</t>
+          <t>在「預防」模式下部署 Front Door 的 WAF 策略。</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>避免結合使用 Azure 流量管理器和 Azure Front Door。</t>
+          <t>避免將 Azure 流量管理器和 Azure Front Door 結合使用。</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>在 Azure Front Door 和源上使用相同的功能變數名稱。不匹配的主機名可能會導致細微的錯誤。</t>
+          <t>在 Azure Front Door 和源上使用相同的功能變數名稱。主機名不匹配可能會導致細微的錯誤。</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>為 Azure Front Door 選擇運行狀況良好的探測終結點。請考慮生成用於檢查應用程式的所有依賴項的運行狀況終結點。</t>
+          <t>為 Azure Front Door 選擇良好的運行狀況探測終結點。請考慮構建運行狀況終結點，以檢查應用程式的所有依賴項。</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
@@ -22390,7 +22390,7 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>將端到端 TLS 與 Azure Front Door 配合使用。將 TLS 用於從用戶端到 Front Door 的連接，以及從 Front Door 到源的連接。</t>
+          <t>將端到端 TLS 與 Azure Front Door 配合使用。使用 TLS 進行從用戶端到 Front Door 的連接，以及從 Front Door 到源的連接。</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>將 HTTP 到 HTTPS 重定向與 Azure Front Door 配合使用。通過自動將舊用戶端重定向到 HTTPS 請求來支持它們。</t>
+          <t>將 HTTP 到 HTTPS 重定向與 Azure Front Door 配合使用。通過自動將較舊的用戶端重定向到 HTTPS 請求來支援它們。</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -22594,7 +22594,7 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>將預防模式與 Azure Front Door WAF 配合使用。防護模式可確保WAF攔截惡意請求。</t>
+          <t>啟用在 Azure Front Door WAF 策略中啟用的請求正文檢查功能。</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure Front Door WAF 機器人管理規則。機器人規則可檢測好的和壞的機器人。</t>
+          <t>啟用 Azure Front Door WAF 機器人保護規則集。機器人規則檢測好的和壞的機器人。</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>對 Azure Front Door WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可防止可能使基礎結構不堪重負的大量請求。</t>
+          <t>對 Azure Front Door WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可針對可能使基礎結構不堪重負的大量請求提供保護。</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door WAF 對流量進行異地篩選。僅允許來自預期區域的流量，並阻止來自其他區域的流量。</t>
+          <t>如果您不希望收到來自所有地理區域的流量，請使用地理篩選器來阻止來自非預期國家/地區的流量。</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -22951,7 +22951,7 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door WAF 對流量進行異地篩選時，指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
+          <t>使用 Azure Front Door WAF 對流量進行地理篩選時，請指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -22987,26 +22987,30 @@
     <row r="437">
       <c r="A437" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>啟用 Azure 應用程式閘道 WAF 機器人保護規則集 機器人規則可檢測好機器人和壞機器人。</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
-      <c r="F437" s="18" t="n"/>
+      <c r="F437" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G437" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23022,7 +23026,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23034,26 +23038,30 @@
     <row r="438">
       <c r="A438" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>啟用 Azure 應用程式閘道 WAF 策略中啟用的請求正文檢查功能。</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
-      <c r="F438" s="18" t="n"/>
+      <c r="F438" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G438" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23069,7 +23077,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23081,26 +23089,30 @@
     <row r="439">
       <c r="A439" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>針對工作負載優化 Azure 應用程式閘道 WAF。減少誤報檢測。</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
-      <c r="F439" s="18" t="n"/>
+      <c r="F439" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G439" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23116,7 +23128,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23128,26 +23140,30 @@
     <row r="440">
       <c r="A440" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>在「防護」模式下部署應用程式閘道的 WAF 策略。</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
-      <c r="F440" s="18" t="n"/>
+      <c r="F440" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
       <c r="G440" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23160,10 +23176,14 @@
         </is>
       </c>
       <c r="J440" s="13" t="n"/>
-      <c r="K440" s="19" t="n"/>
+      <c r="K440" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23175,7 +23195,7 @@
     <row r="441">
       <c r="A441" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B441" s="18" t="inlineStr">
@@ -23185,19 +23205,15 @@
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>請考慮「存儲的 Azure 安全基線”</t>
-        </is>
-      </c>
-      <c r="E441" s="18" t="inlineStr">
-        <is>
-          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
-        </is>
-      </c>
+          <t>向 Azure 應用程式閘道 WAF 添加速率限制。速率限制會阻止客戶端在短時間內意外或有意發送大量流量。</t>
+        </is>
+      </c>
+      <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -23218,7 +23234,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23230,7 +23246,7 @@
     <row r="442">
       <c r="A442" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B442" s="18" t="inlineStr">
@@ -23240,22 +23256,18 @@
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>考慮將專用終結點用於 Azure 存儲</t>
-        </is>
-      </c>
-      <c r="E442" s="18" t="inlineStr">
-        <is>
-          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
-        </is>
-      </c>
+          <t>對 Azure 應用程式閘道 WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可針對可能使基礎結構不堪重負的大量請求提供保護。</t>
+        </is>
+      </c>
+      <c r="E442" s="18" t="n"/>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23273,7 +23285,7 @@
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23285,7 +23297,7 @@
     <row r="443">
       <c r="A443" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B443" s="18" t="inlineStr">
@@ -23295,22 +23307,18 @@
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
-        </is>
-      </c>
-      <c r="E443" s="18" t="inlineStr">
-        <is>
-          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
-        </is>
-      </c>
+          <t>如果您不希望收到來自所有地理區域的流量，請使用地理篩選器來阻止來自非預期國家/地區的流量。</t>
+        </is>
+      </c>
+      <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23328,7 +23336,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23340,7 +23348,7 @@
     <row r="444">
       <c r="A444" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B444" s="18" t="inlineStr">
@@ -23350,22 +23358,18 @@
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
-        </is>
-      </c>
-      <c r="E444" s="18" t="inlineStr">
-        <is>
-          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
-        </is>
-      </c>
+          <t>使用 Azure 應用程式閘道 WAF 對流量進行地理篩選時，請指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
+        </is>
+      </c>
+      <c r="E444" s="18" t="n"/>
       <c r="F444" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -23383,7 +23387,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23395,7 +23399,7 @@
     <row r="445">
       <c r="A445" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B445" s="18" t="inlineStr">
@@ -23405,19 +23409,15 @@
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>為 blob 啟用“軟刪除”</t>
-        </is>
-      </c>
-      <c r="E445" s="18" t="inlineStr">
-        <is>
-          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
-        </is>
-      </c>
+          <t>使用最新的 Azure 應用程式閘道 WAF 規則集版本。規則集更新會定期更新，以考慮當前的威脅形勢。</t>
+        </is>
+      </c>
+      <c r="E445" s="18" t="n"/>
       <c r="F445" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -23438,7 +23438,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23450,29 +23450,25 @@
     <row r="446">
       <c r="A446" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>禁用 blob 的“軟刪除”</t>
-        </is>
-      </c>
-      <c r="E446" s="18" t="inlineStr">
-        <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
-        </is>
-      </c>
+          <t>添加診斷設置以保存 Azure 應用程式閘道 WAF 紀錄。</t>
+        </is>
+      </c>
+      <c r="E446" s="18" t="n"/>
       <c r="F446" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -23493,7 +23489,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23505,32 +23501,28 @@
     <row r="447">
       <c r="A447" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>為容器啟用“軟刪除”</t>
-        </is>
-      </c>
-      <c r="E447" s="18" t="inlineStr">
-        <is>
-          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
-        </is>
-      </c>
+          <t>添加診斷設置以保存 Azure Front Door WAF 紀錄。</t>
+        </is>
+      </c>
+      <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23548,7 +23540,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23560,29 +23552,25 @@
     <row r="448">
       <c r="A448" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>禁用容器的“軟刪除”</t>
-        </is>
-      </c>
-      <c r="E448" s="18" t="inlineStr">
-        <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
-        </is>
-      </c>
+          <t>將 Azure 應用程式閘道 WAF 紀錄發送到 Microsoft Sentinel。</t>
+        </is>
+      </c>
+      <c r="E448" s="18" t="n"/>
       <c r="F448" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -23603,7 +23591,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23615,32 +23603,28 @@
     <row r="449">
       <c r="A449" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>在存儲帳戶上啟用資源鎖</t>
-        </is>
-      </c>
-      <c r="E449" s="18" t="inlineStr">
-        <is>
-          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
-        </is>
-      </c>
+          <t>將 Azure Front Door WAF 日誌發送到 Microsoft Sentinel。</t>
+        </is>
+      </c>
+      <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23658,7 +23642,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23670,32 +23654,28 @@
     <row r="450">
       <c r="A450" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B450" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>考慮不可變的 blob</t>
-        </is>
-      </c>
-      <c r="E450" s="18" t="inlineStr">
-        <is>
-          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
-        </is>
-      </c>
+          <t>將 Azure 應用程式閘道 WAF 設定定義為代碼。通過使用代碼，您可以更輕鬆地採用新的規則集版本並獲得額外的保護。</t>
+        </is>
+      </c>
+      <c r="E450" s="18" t="n"/>
       <c r="F450" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -23713,7 +23693,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23725,32 +23705,28 @@
     <row r="451">
       <c r="A451" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
-        </is>
-      </c>
-      <c r="E451" s="18" t="inlineStr">
-        <is>
-          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
-        </is>
-      </c>
+          <t>使用 WAF 策略而不是舊版 WAF 配置。</t>
+        </is>
+      </c>
+      <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -23768,7 +23744,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23780,7 +23756,7 @@
     <row r="452">
       <c r="A452" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B452" s="18" t="inlineStr">
@@ -23790,22 +23766,18 @@
       </c>
       <c r="C452" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
-        </is>
-      </c>
-      <c r="E452" s="18" t="inlineStr">
-        <is>
-          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
-        </is>
-      </c>
+          <t>篩選後端中的入站流量，以便它們僅接受來自應用程式閘道子網的連接，例如使用NSG。</t>
+        </is>
+      </c>
+      <c r="E452" s="18" t="n"/>
       <c r="F452" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -23823,7 +23795,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23835,34 +23807,26 @@
     <row r="453">
       <c r="A453" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
-        </is>
-      </c>
-      <c r="E453" s="18" t="inlineStr">
-        <is>
-          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
-        </is>
-      </c>
-      <c r="F453" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+        </is>
+      </c>
+      <c r="E453" s="18" t="n"/>
+      <c r="F453" s="18" t="n"/>
       <c r="G453" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23878,7 +23842,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23890,34 +23854,26 @@
     <row r="454">
       <c r="A454" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B454" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C454" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
-        </is>
-      </c>
-      <c r="E454" s="18" t="inlineStr">
-        <is>
-          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
-        </is>
-      </c>
-      <c r="F454" s="18" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+        </is>
+      </c>
+      <c r="E454" s="18" t="n"/>
+      <c r="F454" s="18" t="n"/>
       <c r="G454" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23933,7 +23889,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23945,46 +23901,42 @@
     <row r="455">
       <c r="A455" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>IaM 許可權中的最低特權</t>
-        </is>
-      </c>
-      <c r="E455" s="18" t="inlineStr">
-        <is>
-          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
-        </is>
-      </c>
-      <c r="F455" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+        </is>
+      </c>
+      <c r="E455" s="18" t="n"/>
+      <c r="F455" s="18" t="n"/>
       <c r="G455" t="inlineStr">
         <is>
           <t>未驗證</t>
         </is>
       </c>
       <c r="H455" s="18" t="n"/>
-      <c r="I455" s="13" t="n"/>
+      <c r="I455" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J455" s="13" t="n"/>
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -23996,34 +23948,26 @@
     <row r="456">
       <c r="A456" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B456" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C456" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
-        </is>
-      </c>
-      <c r="E456" s="18" t="inlineStr">
-        <is>
-          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
-        </is>
-      </c>
-      <c r="F456" s="18" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+        </is>
+      </c>
+      <c r="E456" s="18" t="n"/>
+      <c r="F456" s="18" t="n"/>
       <c r="G456" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -24039,7 +23983,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24066,17 +24010,17 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
+          <t>請考慮「存儲的 Azure 安全基線”</t>
         </is>
       </c>
       <c r="E457" s="18" t="inlineStr">
         <is>
-          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
+          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
         </is>
       </c>
       <c r="F457" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -24094,7 +24038,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24121,12 +24065,12 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
+          <t>考慮將專用終結點用於 Azure 存儲</t>
         </is>
       </c>
       <c r="E458" s="18" t="inlineStr">
         <is>
-          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
+          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
         </is>
       </c>
       <c r="F458" s="18" t="inlineStr">
@@ -24149,7 +24093,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24176,12 +24120,12 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
+          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
         </is>
       </c>
       <c r="E459" s="18" t="inlineStr">
         <is>
-          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
+          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
         </is>
       </c>
       <c r="F459" s="18" t="inlineStr">
@@ -24204,7 +24148,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24231,17 +24175,17 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>考慮配置 SAS 過期策略</t>
+          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
         </is>
       </c>
       <c r="E460" s="18" t="inlineStr">
         <is>
-          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
+          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
         </is>
       </c>
       <c r="F460" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -24259,7 +24203,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24286,12 +24230,12 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>考慮將 SAS 連結到儲存存取策略</t>
+          <t>為 blob 啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E461" s="18" t="inlineStr">
         <is>
-          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
+          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
         </is>
       </c>
       <c r="F461" s="18" t="inlineStr">
@@ -24314,7 +24258,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24341,10 +24285,14 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
-        </is>
-      </c>
-      <c r="E462" s="18" t="n"/>
+          <t>禁用 blob 的“軟刪除”</t>
+        </is>
+      </c>
+      <c r="E462" s="18" t="inlineStr">
+        <is>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+        </is>
+      </c>
       <c r="F462" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -24365,7 +24313,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24392,12 +24340,12 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
+          <t>為容器啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E463" s="18" t="inlineStr">
         <is>
-          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
+          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
         </is>
       </c>
       <c r="F463" s="18" t="inlineStr">
@@ -24420,7 +24368,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24447,17 +24395,17 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>爭取縮短臨時 SAS 的有效期</t>
+          <t>禁用容器的“軟刪除”</t>
         </is>
       </c>
       <c r="E464" s="18" t="inlineStr">
         <is>
-          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F464" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -24475,7 +24423,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24502,17 +24450,17 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>將窄範圍應用於SAS</t>
+          <t>在存儲帳戶上啟用資源鎖</t>
         </is>
       </c>
       <c r="E465" s="18" t="inlineStr">
         <is>
-          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
+          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
         </is>
       </c>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24530,7 +24478,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24557,17 +24505,17 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
+          <t>考慮不可變的 blob</t>
         </is>
       </c>
       <c r="E466" s="18" t="inlineStr">
         <is>
-          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
+          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
         </is>
       </c>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24585,7 +24533,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24612,17 +24560,17 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
+          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
         </is>
       </c>
       <c r="E467" s="18" t="inlineStr">
         <is>
-          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
+          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
         </is>
       </c>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24631,12 +24579,16 @@
         </is>
       </c>
       <c r="H467" s="18" t="n"/>
-      <c r="I467" s="13" t="n"/>
+      <c r="I467" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J467" s="13" t="n"/>
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24663,12 +24615,12 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
         </is>
       </c>
       <c r="E468" s="18" t="inlineStr">
         <is>
-          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
         </is>
       </c>
       <c r="F468" s="18" t="inlineStr">
@@ -24691,7 +24643,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24718,10 +24670,14 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
-        </is>
-      </c>
-      <c r="E469" s="18" t="n"/>
+          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
+        </is>
+      </c>
+      <c r="E469" s="18" t="inlineStr">
+        <is>
+          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
+        </is>
+      </c>
       <c r="F469" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -24742,7 +24698,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24769,12 +24725,12 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>避免過於寬泛的 CORS 策略</t>
+          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
         </is>
       </c>
       <c r="E470" s="18" t="inlineStr">
         <is>
-          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
+          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
         </is>
       </c>
       <c r="F470" s="18" t="inlineStr">
@@ -24797,7 +24753,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24824,17 +24780,17 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+          <t>IaM 許可權中的最低特權</t>
         </is>
       </c>
       <c r="E471" s="18" t="inlineStr">
         <is>
-          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
         </is>
       </c>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -24843,16 +24799,12 @@
         </is>
       </c>
       <c r="H471" s="18" t="n"/>
-      <c r="I471" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I471" s="13" t="n"/>
       <c r="J471" s="13" t="n"/>
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24879,13 +24831,17 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用平臺加密。</t>
-        </is>
-      </c>
-      <c r="E472" s="18" t="n"/>
+          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
+        </is>
+      </c>
+      <c r="E472" s="18" t="inlineStr">
+        <is>
+          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
+        </is>
+      </c>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24903,7 +24859,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24930,13 +24886,17 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用用戶端加密。</t>
-        </is>
-      </c>
-      <c r="E473" s="18" t="n"/>
+          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
+        </is>
+      </c>
+      <c r="E473" s="18" t="inlineStr">
+        <is>
+          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
+        </is>
+      </c>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -24954,7 +24914,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24981,12 +24941,12 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
         </is>
       </c>
       <c r="E474" s="18" t="inlineStr">
         <is>
-          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
         </is>
       </c>
       <c r="F474" s="18" t="inlineStr">
@@ -25009,7 +24969,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25019,17 +24979,54 @@
       <c r="Q474" s="20" t="n"/>
     </row>
     <row r="475">
-      <c r="A475" s="18" t="n"/>
-      <c r="B475" s="18" t="n"/>
-      <c r="C475" s="18" t="n"/>
-      <c r="D475" s="18" t="n"/>
-      <c r="E475" s="18" t="n"/>
-      <c r="F475" s="18" t="n"/>
+      <c r="A475" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B475" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C475" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D475" s="18" t="inlineStr">
+        <is>
+          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
+        </is>
+      </c>
+      <c r="E475" s="18" t="inlineStr">
+        <is>
+          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
+        </is>
+      </c>
+      <c r="F475" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H475" s="18" t="n"/>
-      <c r="I475" s="13" t="n"/>
+      <c r="I475" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J475" s="13" t="n"/>
       <c r="K475" s="19" t="n"/>
-      <c r="L475" s="19" t="n"/>
+      <c r="L475" s="19" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M475" s="20" t="n"/>
       <c r="N475" s="20" t="n"/>
       <c r="O475" s="20" t="n"/>
@@ -25037,17 +25034,54 @@
       <c r="Q475" s="20" t="n"/>
     </row>
     <row r="476">
-      <c r="A476" s="18" t="n"/>
-      <c r="B476" s="18" t="n"/>
-      <c r="C476" s="18" t="n"/>
-      <c r="D476" s="18" t="n"/>
-      <c r="E476" s="18" t="n"/>
-      <c r="F476" s="18" t="n"/>
+      <c r="A476" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B476" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C476" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D476" s="18" t="inlineStr">
+        <is>
+          <t>考慮配置 SAS 過期策略</t>
+        </is>
+      </c>
+      <c r="E476" s="18" t="inlineStr">
+        <is>
+          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
+        </is>
+      </c>
+      <c r="F476" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H476" s="18" t="n"/>
-      <c r="I476" s="13" t="n"/>
+      <c r="I476" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J476" s="13" t="n"/>
       <c r="K476" s="19" t="n"/>
-      <c r="L476" s="19" t="n"/>
+      <c r="L476" s="19" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+        </is>
+      </c>
       <c r="M476" s="20" t="n"/>
       <c r="N476" s="20" t="n"/>
       <c r="O476" s="20" t="n"/>
@@ -25055,17 +25089,54 @@
       <c r="Q476" s="20" t="n"/>
     </row>
     <row r="477">
-      <c r="A477" s="18" t="n"/>
-      <c r="B477" s="18" t="n"/>
-      <c r="C477" s="18" t="n"/>
-      <c r="D477" s="18" t="n"/>
-      <c r="E477" s="18" t="n"/>
-      <c r="F477" s="18" t="n"/>
+      <c r="A477" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B477" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C477" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D477" s="18" t="inlineStr">
+        <is>
+          <t>考慮將 SAS 連結到儲存存取策略</t>
+        </is>
+      </c>
+      <c r="E477" s="18" t="inlineStr">
+        <is>
+          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
+        </is>
+      </c>
+      <c r="F477" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H477" s="18" t="n"/>
-      <c r="I477" s="13" t="n"/>
+      <c r="I477" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J477" s="13" t="n"/>
       <c r="K477" s="19" t="n"/>
-      <c r="L477" s="19" t="n"/>
+      <c r="L477" s="19" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+        </is>
+      </c>
       <c r="M477" s="20" t="n"/>
       <c r="N477" s="20" t="n"/>
       <c r="O477" s="20" t="n"/>
@@ -25073,17 +25144,50 @@
       <c r="Q477" s="20" t="n"/>
     </row>
     <row r="478">
-      <c r="A478" s="18" t="n"/>
-      <c r="B478" s="18" t="n"/>
-      <c r="C478" s="18" t="n"/>
-      <c r="D478" s="18" t="n"/>
+      <c r="A478" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B478" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C478" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D478" s="18" t="inlineStr">
+        <is>
+          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
+        </is>
+      </c>
       <c r="E478" s="18" t="n"/>
-      <c r="F478" s="18" t="n"/>
+      <c r="F478" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H478" s="18" t="n"/>
-      <c r="I478" s="13" t="n"/>
+      <c r="I478" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J478" s="13" t="n"/>
       <c r="K478" s="19" t="n"/>
-      <c r="L478" s="19" t="n"/>
+      <c r="L478" s="19" t="inlineStr">
+        <is>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+        </is>
+      </c>
       <c r="M478" s="20" t="n"/>
       <c r="N478" s="20" t="n"/>
       <c r="O478" s="20" t="n"/>
@@ -25091,17 +25195,54 @@
       <c r="Q478" s="20" t="n"/>
     </row>
     <row r="479">
-      <c r="A479" s="18" t="n"/>
-      <c r="B479" s="18" t="n"/>
-      <c r="C479" s="18" t="n"/>
-      <c r="D479" s="18" t="n"/>
-      <c r="E479" s="18" t="n"/>
-      <c r="F479" s="18" t="n"/>
+      <c r="A479" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B479" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C479" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D479" s="18" t="inlineStr">
+        <is>
+          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
+        </is>
+      </c>
+      <c r="E479" s="18" t="inlineStr">
+        <is>
+          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
+        </is>
+      </c>
+      <c r="F479" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H479" s="18" t="n"/>
-      <c r="I479" s="13" t="n"/>
+      <c r="I479" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J479" s="13" t="n"/>
       <c r="K479" s="19" t="n"/>
-      <c r="L479" s="19" t="n"/>
+      <c r="L479" s="19" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+        </is>
+      </c>
       <c r="M479" s="20" t="n"/>
       <c r="N479" s="20" t="n"/>
       <c r="O479" s="20" t="n"/>
@@ -25109,17 +25250,54 @@
       <c r="Q479" s="20" t="n"/>
     </row>
     <row r="480">
-      <c r="A480" s="18" t="n"/>
-      <c r="B480" s="18" t="n"/>
-      <c r="C480" s="18" t="n"/>
-      <c r="D480" s="18" t="n"/>
-      <c r="E480" s="18" t="n"/>
-      <c r="F480" s="18" t="n"/>
+      <c r="A480" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B480" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C480" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D480" s="18" t="inlineStr">
+        <is>
+          <t>爭取縮短臨時 SAS 的有效期</t>
+        </is>
+      </c>
+      <c r="E480" s="18" t="inlineStr">
+        <is>
+          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
+        </is>
+      </c>
+      <c r="F480" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H480" s="18" t="n"/>
-      <c r="I480" s="13" t="n"/>
+      <c r="I480" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J480" s="13" t="n"/>
       <c r="K480" s="19" t="n"/>
-      <c r="L480" s="19" t="n"/>
+      <c r="L480" s="19" t="inlineStr">
+        <is>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+        </is>
+      </c>
       <c r="M480" s="20" t="n"/>
       <c r="N480" s="20" t="n"/>
       <c r="O480" s="20" t="n"/>
@@ -25127,17 +25305,54 @@
       <c r="Q480" s="20" t="n"/>
     </row>
     <row r="481">
-      <c r="A481" s="18" t="n"/>
-      <c r="B481" s="18" t="n"/>
-      <c r="C481" s="18" t="n"/>
-      <c r="D481" s="18" t="n"/>
-      <c r="E481" s="18" t="n"/>
-      <c r="F481" s="18" t="n"/>
+      <c r="A481" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B481" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C481" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D481" s="18" t="inlineStr">
+        <is>
+          <t>將窄範圍應用於SAS</t>
+        </is>
+      </c>
+      <c r="E481" s="18" t="inlineStr">
+        <is>
+          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
+        </is>
+      </c>
+      <c r="F481" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H481" s="18" t="n"/>
-      <c r="I481" s="13" t="n"/>
+      <c r="I481" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J481" s="13" t="n"/>
       <c r="K481" s="19" t="n"/>
-      <c r="L481" s="19" t="n"/>
+      <c r="L481" s="19" t="inlineStr">
+        <is>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+        </is>
+      </c>
       <c r="M481" s="20" t="n"/>
       <c r="N481" s="20" t="n"/>
       <c r="O481" s="20" t="n"/>
@@ -25145,17 +25360,54 @@
       <c r="Q481" s="20" t="n"/>
     </row>
     <row r="482">
-      <c r="A482" s="18" t="n"/>
-      <c r="B482" s="18" t="n"/>
-      <c r="C482" s="18" t="n"/>
-      <c r="D482" s="18" t="n"/>
-      <c r="E482" s="18" t="n"/>
-      <c r="F482" s="18" t="n"/>
+      <c r="A482" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B482" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C482" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D482" s="18" t="inlineStr">
+        <is>
+          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
+        </is>
+      </c>
+      <c r="E482" s="18" t="inlineStr">
+        <is>
+          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
+        </is>
+      </c>
+      <c r="F482" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H482" s="18" t="n"/>
-      <c r="I482" s="13" t="n"/>
+      <c r="I482" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J482" s="13" t="n"/>
       <c r="K482" s="19" t="n"/>
-      <c r="L482" s="19" t="n"/>
+      <c r="L482" s="19" t="inlineStr">
+        <is>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+        </is>
+      </c>
       <c r="M482" s="20" t="n"/>
       <c r="N482" s="20" t="n"/>
       <c r="O482" s="20" t="n"/>
@@ -25163,17 +25415,50 @@
       <c r="Q482" s="20" t="n"/>
     </row>
     <row r="483">
-      <c r="A483" s="18" t="n"/>
-      <c r="B483" s="18" t="n"/>
-      <c r="C483" s="18" t="n"/>
-      <c r="D483" s="18" t="n"/>
-      <c r="E483" s="18" t="n"/>
-      <c r="F483" s="18" t="n"/>
+      <c r="A483" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B483" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C483" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D483" s="18" t="inlineStr">
+        <is>
+          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
+        </is>
+      </c>
+      <c r="E483" s="18" t="inlineStr">
+        <is>
+          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
+        </is>
+      </c>
+      <c r="F483" s="18" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H483" s="18" t="n"/>
       <c r="I483" s="13" t="n"/>
       <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
-      <c r="L483" s="19" t="n"/>
+      <c r="L483" s="19" t="inlineStr">
+        <is>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+        </is>
+      </c>
       <c r="M483" s="20" t="n"/>
       <c r="N483" s="20" t="n"/>
       <c r="O483" s="20" t="n"/>
@@ -25181,17 +25466,54 @@
       <c r="Q483" s="20" t="n"/>
     </row>
     <row r="484">
-      <c r="A484" s="18" t="n"/>
-      <c r="B484" s="18" t="n"/>
-      <c r="C484" s="18" t="n"/>
-      <c r="D484" s="18" t="n"/>
-      <c r="E484" s="18" t="n"/>
-      <c r="F484" s="18" t="n"/>
+      <c r="A484" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B484" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C484" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D484" s="18" t="inlineStr">
+        <is>
+          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+        </is>
+      </c>
+      <c r="E484" s="18" t="inlineStr">
+        <is>
+          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+        </is>
+      </c>
+      <c r="F484" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H484" s="18" t="n"/>
-      <c r="I484" s="13" t="n"/>
+      <c r="I484" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J484" s="13" t="n"/>
       <c r="K484" s="19" t="n"/>
-      <c r="L484" s="19" t="n"/>
+      <c r="L484" s="19" t="inlineStr">
+        <is>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+        </is>
+      </c>
       <c r="M484" s="20" t="n"/>
       <c r="N484" s="20" t="n"/>
       <c r="O484" s="20" t="n"/>
@@ -25199,17 +25521,50 @@
       <c r="Q484" s="20" t="n"/>
     </row>
     <row r="485">
-      <c r="A485" s="18" t="n"/>
-      <c r="B485" s="18" t="n"/>
-      <c r="C485" s="18" t="n"/>
-      <c r="D485" s="18" t="n"/>
+      <c r="A485" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B485" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C485" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D485" s="18" t="inlineStr">
+        <is>
+          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
+        </is>
+      </c>
       <c r="E485" s="18" t="n"/>
-      <c r="F485" s="18" t="n"/>
+      <c r="F485" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H485" s="18" t="n"/>
-      <c r="I485" s="13" t="n"/>
+      <c r="I485" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J485" s="13" t="n"/>
       <c r="K485" s="19" t="n"/>
-      <c r="L485" s="19" t="n"/>
+      <c r="L485" s="19" t="inlineStr">
+        <is>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+        </is>
+      </c>
       <c r="M485" s="20" t="n"/>
       <c r="N485" s="20" t="n"/>
       <c r="O485" s="20" t="n"/>
@@ -25217,17 +25572,54 @@
       <c r="Q485" s="20" t="n"/>
     </row>
     <row r="486">
-      <c r="A486" s="18" t="n"/>
-      <c r="B486" s="18" t="n"/>
-      <c r="C486" s="18" t="n"/>
-      <c r="D486" s="18" t="n"/>
-      <c r="E486" s="18" t="n"/>
-      <c r="F486" s="18" t="n"/>
+      <c r="A486" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B486" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C486" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D486" s="18" t="inlineStr">
+        <is>
+          <t>避免過於寬泛的 CORS 策略</t>
+        </is>
+      </c>
+      <c r="E486" s="18" t="inlineStr">
+        <is>
+          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
+        </is>
+      </c>
+      <c r="F486" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="13" t="n"/>
+      <c r="I486" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J486" s="13" t="n"/>
       <c r="K486" s="19" t="n"/>
-      <c r="L486" s="19" t="n"/>
+      <c r="L486" s="19" t="inlineStr">
+        <is>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+        </is>
+      </c>
       <c r="M486" s="20" t="n"/>
       <c r="N486" s="20" t="n"/>
       <c r="O486" s="20" t="n"/>
@@ -25235,17 +25627,54 @@
       <c r="Q486" s="20" t="n"/>
     </row>
     <row r="487">
-      <c r="A487" s="18" t="n"/>
-      <c r="B487" s="18" t="n"/>
-      <c r="C487" s="18" t="n"/>
-      <c r="D487" s="18" t="n"/>
-      <c r="E487" s="18" t="n"/>
-      <c r="F487" s="18" t="n"/>
+      <c r="A487" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B487" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C487" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D487" s="18" t="inlineStr">
+        <is>
+          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+        </is>
+      </c>
+      <c r="E487" s="18" t="inlineStr">
+        <is>
+          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+        </is>
+      </c>
+      <c r="F487" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H487" s="18" t="n"/>
-      <c r="I487" s="13" t="n"/>
+      <c r="I487" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J487" s="13" t="n"/>
       <c r="K487" s="19" t="n"/>
-      <c r="L487" s="19" t="n"/>
+      <c r="L487" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M487" s="20" t="n"/>
       <c r="N487" s="20" t="n"/>
       <c r="O487" s="20" t="n"/>
@@ -25253,17 +25682,50 @@
       <c r="Q487" s="20" t="n"/>
     </row>
     <row r="488">
-      <c r="A488" s="18" t="n"/>
-      <c r="B488" s="18" t="n"/>
-      <c r="C488" s="18" t="n"/>
-      <c r="D488" s="18" t="n"/>
+      <c r="A488" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B488" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C488" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D488" s="18" t="inlineStr">
+        <is>
+          <t>確定應使用哪種/是否應使用平臺加密。</t>
+        </is>
+      </c>
       <c r="E488" s="18" t="n"/>
-      <c r="F488" s="18" t="n"/>
+      <c r="F488" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H488" s="18" t="n"/>
-      <c r="I488" s="13" t="n"/>
+      <c r="I488" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="n"/>
-      <c r="L488" s="19" t="n"/>
+      <c r="L488" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M488" s="20" t="n"/>
       <c r="N488" s="20" t="n"/>
       <c r="O488" s="20" t="n"/>
@@ -25271,17 +25733,50 @@
       <c r="Q488" s="20" t="n"/>
     </row>
     <row r="489">
-      <c r="A489" s="18" t="n"/>
-      <c r="B489" s="18" t="n"/>
-      <c r="C489" s="18" t="n"/>
-      <c r="D489" s="18" t="n"/>
+      <c r="A489" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B489" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C489" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D489" s="18" t="inlineStr">
+        <is>
+          <t>確定應使用哪種/是否應使用用戶端加密。</t>
+        </is>
+      </c>
       <c r="E489" s="18" t="n"/>
-      <c r="F489" s="18" t="n"/>
+      <c r="F489" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H489" s="18" t="n"/>
-      <c r="I489" s="13" t="n"/>
+      <c r="I489" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="n"/>
-      <c r="L489" s="19" t="n"/>
+      <c r="L489" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M489" s="20" t="n"/>
       <c r="N489" s="20" t="n"/>
       <c r="O489" s="20" t="n"/>
@@ -25289,17 +25784,54 @@
       <c r="Q489" s="20" t="n"/>
     </row>
     <row r="490">
-      <c r="A490" s="18" t="n"/>
-      <c r="B490" s="18" t="n"/>
-      <c r="C490" s="18" t="n"/>
-      <c r="D490" s="18" t="n"/>
-      <c r="E490" s="18" t="n"/>
-      <c r="F490" s="18" t="n"/>
+      <c r="A490" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B490" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C490" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D490" s="18" t="inlineStr">
+        <is>
+          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+        </is>
+      </c>
+      <c r="E490" s="18" t="inlineStr">
+        <is>
+          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+        </is>
+      </c>
+      <c r="F490" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H490" s="18" t="n"/>
-      <c r="I490" s="13" t="n"/>
+      <c r="I490" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J490" s="13" t="n"/>
       <c r="K490" s="19" t="n"/>
-      <c r="L490" s="19" t="n"/>
+      <c r="L490" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M490" s="20" t="n"/>
       <c r="N490" s="20" t="n"/>
       <c r="O490" s="20" t="n"/>
@@ -38321,7 +38853,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G475" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -38677,24 +39209,40 @@
     <hyperlink ref="I452" r:id="rId349"/>
     <hyperlink ref="I453" r:id="rId350"/>
     <hyperlink ref="I454" r:id="rId351"/>
-    <hyperlink ref="I456" r:id="rId352"/>
-    <hyperlink ref="I457" r:id="rId353"/>
-    <hyperlink ref="I458" r:id="rId354"/>
-    <hyperlink ref="I459" r:id="rId355"/>
-    <hyperlink ref="I460" r:id="rId356"/>
-    <hyperlink ref="I461" r:id="rId357"/>
-    <hyperlink ref="I462" r:id="rId358"/>
-    <hyperlink ref="I463" r:id="rId359"/>
-    <hyperlink ref="I464" r:id="rId360"/>
-    <hyperlink ref="I465" r:id="rId361"/>
-    <hyperlink ref="I466" r:id="rId362"/>
-    <hyperlink ref="I468" r:id="rId363"/>
-    <hyperlink ref="I469" r:id="rId364"/>
-    <hyperlink ref="I470" r:id="rId365"/>
-    <hyperlink ref="I471" r:id="rId366"/>
-    <hyperlink ref="I472" r:id="rId367"/>
-    <hyperlink ref="I473" r:id="rId368"/>
-    <hyperlink ref="I474" r:id="rId369"/>
+    <hyperlink ref="I455" r:id="rId352"/>
+    <hyperlink ref="I456" r:id="rId353"/>
+    <hyperlink ref="I457" r:id="rId354"/>
+    <hyperlink ref="I458" r:id="rId355"/>
+    <hyperlink ref="I459" r:id="rId356"/>
+    <hyperlink ref="I460" r:id="rId357"/>
+    <hyperlink ref="I461" r:id="rId358"/>
+    <hyperlink ref="I462" r:id="rId359"/>
+    <hyperlink ref="I463" r:id="rId360"/>
+    <hyperlink ref="I464" r:id="rId361"/>
+    <hyperlink ref="I465" r:id="rId362"/>
+    <hyperlink ref="I466" r:id="rId363"/>
+    <hyperlink ref="I467" r:id="rId364"/>
+    <hyperlink ref="I468" r:id="rId365"/>
+    <hyperlink ref="I469" r:id="rId366"/>
+    <hyperlink ref="I470" r:id="rId367"/>
+    <hyperlink ref="I472" r:id="rId368"/>
+    <hyperlink ref="I473" r:id="rId369"/>
+    <hyperlink ref="I474" r:id="rId370"/>
+    <hyperlink ref="I475" r:id="rId371"/>
+    <hyperlink ref="I476" r:id="rId372"/>
+    <hyperlink ref="I477" r:id="rId373"/>
+    <hyperlink ref="I478" r:id="rId374"/>
+    <hyperlink ref="I479" r:id="rId375"/>
+    <hyperlink ref="I480" r:id="rId376"/>
+    <hyperlink ref="I481" r:id="rId377"/>
+    <hyperlink ref="I482" r:id="rId378"/>
+    <hyperlink ref="I484" r:id="rId379"/>
+    <hyperlink ref="I485" r:id="rId380"/>
+    <hyperlink ref="I486" r:id="rId381"/>
+    <hyperlink ref="I487" r:id="rId382"/>
+    <hyperlink ref="I488" r:id="rId383"/>
+    <hyperlink ref="I489" r:id="rId384"/>
+    <hyperlink ref="I490" r:id="rId385"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf.zh-Hant.xlsx
@@ -23807,26 +23807,30 @@
     <row r="453">
       <c r="A453" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>確保源僅從 Azure Front Door 實例獲取流量。</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
-      <c r="F453" s="18" t="n"/>
+      <c r="F453" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G453" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23842,7 +23846,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23869,7 +23873,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -23889,7 +23893,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23916,7 +23920,7 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -23936,7 +23940,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -23963,7 +23967,7 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
@@ -23983,7 +23987,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -23995,34 +23999,26 @@
     <row r="457">
       <c r="A457" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>請考慮「存儲的 Azure 安全基線”</t>
-        </is>
-      </c>
-      <c r="E457" s="18" t="inlineStr">
-        <is>
-          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
-        </is>
-      </c>
-      <c r="F457" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+        </is>
+      </c>
+      <c r="E457" s="18" t="n"/>
+      <c r="F457" s="18" t="n"/>
       <c r="G457" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -24038,7 +24034,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24065,17 +24061,17 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>考慮將專用終結點用於 Azure 存儲</t>
+          <t>請考慮「存儲的 Azure 安全基線”</t>
         </is>
       </c>
       <c r="E458" s="18" t="inlineStr">
         <is>
-          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
+          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
         </is>
       </c>
       <c r="F458" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -24093,7 +24089,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24120,17 +24116,17 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
+          <t>考慮將專用終結點用於 Azure 存儲</t>
         </is>
       </c>
       <c r="E459" s="18" t="inlineStr">
         <is>
-          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
+          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
         </is>
       </c>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24148,7 +24144,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24175,17 +24171,17 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
+          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
         </is>
       </c>
       <c r="E460" s="18" t="inlineStr">
         <is>
-          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
+          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
         </is>
       </c>
       <c r="F460" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -24203,7 +24199,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24230,17 +24226,17 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>為 blob 啟用“軟刪除”</t>
+          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
         </is>
       </c>
       <c r="E461" s="18" t="inlineStr">
         <is>
-          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
+          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
         </is>
       </c>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24258,7 +24254,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24285,12 +24281,12 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>禁用 blob 的“軟刪除”</t>
+          <t>為 blob 啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E462" s="18" t="inlineStr">
         <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
         </is>
       </c>
       <c r="F462" s="18" t="inlineStr">
@@ -24313,7 +24309,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24340,17 +24336,17 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>為容器啟用“軟刪除”</t>
+          <t>禁用 blob 的“軟刪除”</t>
         </is>
       </c>
       <c r="E463" s="18" t="inlineStr">
         <is>
-          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F463" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -24368,7 +24364,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24395,17 +24391,17 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>禁用容器的“軟刪除”</t>
+          <t>為容器啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E464" s="18" t="inlineStr">
         <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
         </is>
       </c>
       <c r="F464" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -24423,7 +24419,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24450,17 +24446,17 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>在存儲帳戶上啟用資源鎖</t>
+          <t>禁用容器的“軟刪除”</t>
         </is>
       </c>
       <c r="E465" s="18" t="inlineStr">
         <is>
-          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24478,7 +24474,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24505,12 +24501,12 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>考慮不可變的 blob</t>
+          <t>在存儲帳戶上啟用資源鎖</t>
         </is>
       </c>
       <c r="E466" s="18" t="inlineStr">
         <is>
-          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
+          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
         </is>
       </c>
       <c r="F466" s="18" t="inlineStr">
@@ -24533,7 +24529,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24560,12 +24556,12 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
+          <t>考慮不可變的 blob</t>
         </is>
       </c>
       <c r="E467" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
+          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
         </is>
       </c>
       <c r="F467" s="18" t="inlineStr">
@@ -24588,7 +24584,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24615,12 +24611,12 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
+          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
         </is>
       </c>
       <c r="E468" s="18" t="inlineStr">
         <is>
-          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
+          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
         </is>
       </c>
       <c r="F468" s="18" t="inlineStr">
@@ -24643,7 +24639,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24670,17 +24666,17 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
+          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
         </is>
       </c>
       <c r="E469" s="18" t="inlineStr">
         <is>
-          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
+          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
         </is>
       </c>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24698,7 +24694,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24725,17 +24721,17 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
+          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
         </is>
       </c>
       <c r="E470" s="18" t="inlineStr">
         <is>
-          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
+          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
         </is>
       </c>
       <c r="F470" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -24753,7 +24749,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24780,17 +24776,17 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>IaM 許可權中的最低特權</t>
+          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
         </is>
       </c>
       <c r="E471" s="18" t="inlineStr">
         <is>
-          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
+          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
         </is>
       </c>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -24799,12 +24795,16 @@
         </is>
       </c>
       <c r="H471" s="18" t="n"/>
-      <c r="I471" s="13" t="n"/>
+      <c r="I471" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J471" s="13" t="n"/>
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24831,17 +24831,17 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
+          <t>IaM 許可權中的最低特權</t>
         </is>
       </c>
       <c r="E472" s="18" t="inlineStr">
         <is>
-          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
+          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
         </is>
       </c>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24850,16 +24850,12 @@
         </is>
       </c>
       <c r="H472" s="18" t="n"/>
-      <c r="I472" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I472" s="13" t="n"/>
       <c r="J472" s="13" t="n"/>
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24886,12 +24882,12 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
+          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
         </is>
       </c>
       <c r="E473" s="18" t="inlineStr">
         <is>
-          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
+          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
         </is>
       </c>
       <c r="F473" s="18" t="inlineStr">
@@ -24914,7 +24910,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24941,12 +24937,12 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
+          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
         </is>
       </c>
       <c r="E474" s="18" t="inlineStr">
         <is>
-          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
+          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
         </is>
       </c>
       <c r="F474" s="18" t="inlineStr">
@@ -24969,7 +24965,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -24996,17 +24992,17 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
+          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
         </is>
       </c>
       <c r="E475" s="18" t="inlineStr">
         <is>
-          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
+          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
         </is>
       </c>
       <c r="F475" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -25024,7 +25020,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25051,12 +25047,12 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>考慮配置 SAS 過期策略</t>
+          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
         </is>
       </c>
       <c r="E476" s="18" t="inlineStr">
         <is>
-          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
+          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
         </is>
       </c>
       <c r="F476" s="18" t="inlineStr">
@@ -25079,7 +25075,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25106,12 +25102,12 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>考慮將 SAS 連結到儲存存取策略</t>
+          <t>考慮配置 SAS 過期策略</t>
         </is>
       </c>
       <c r="E477" s="18" t="inlineStr">
         <is>
-          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
+          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
         </is>
       </c>
       <c r="F477" s="18" t="inlineStr">
@@ -25134,7 +25130,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25161,10 +25157,14 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
-        </is>
-      </c>
-      <c r="E478" s="18" t="n"/>
+          <t>考慮將 SAS 連結到儲存存取策略</t>
+        </is>
+      </c>
+      <c r="E478" s="18" t="inlineStr">
+        <is>
+          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
+        </is>
+      </c>
       <c r="F478" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -25185,7 +25185,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25212,17 +25212,13 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
-        </is>
-      </c>
-      <c r="E479" s="18" t="inlineStr">
-        <is>
-          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
-        </is>
-      </c>
+          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
+        </is>
+      </c>
+      <c r="E479" s="18" t="n"/>
       <c r="F479" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -25240,7 +25236,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25267,12 +25263,12 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>爭取縮短臨時 SAS 的有效期</t>
+          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
         </is>
       </c>
       <c r="E480" s="18" t="inlineStr">
         <is>
-          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
+          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
         </is>
       </c>
       <c r="F480" s="18" t="inlineStr">
@@ -25295,7 +25291,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25322,17 +25318,17 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>將窄範圍應用於SAS</t>
+          <t>爭取縮短臨時 SAS 的有效期</t>
         </is>
       </c>
       <c r="E481" s="18" t="inlineStr">
         <is>
-          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
+          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
         </is>
       </c>
       <c r="F481" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -25350,7 +25346,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25377,12 +25373,12 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
+          <t>將窄範圍應用於SAS</t>
         </is>
       </c>
       <c r="E482" s="18" t="inlineStr">
         <is>
-          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
+          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
         </is>
       </c>
       <c r="F482" s="18" t="inlineStr">
@@ -25405,7 +25401,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25432,17 +25428,17 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
+          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
         </is>
       </c>
       <c r="E483" s="18" t="inlineStr">
         <is>
-          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
+          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
         </is>
       </c>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25451,12 +25447,16 @@
         </is>
       </c>
       <c r="H483" s="18" t="n"/>
-      <c r="I483" s="13" t="n"/>
+      <c r="I483" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25483,17 +25483,17 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
         </is>
       </c>
       <c r="E484" s="18" t="inlineStr">
         <is>
-          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
         </is>
       </c>
       <c r="F484" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -25502,16 +25502,12 @@
         </is>
       </c>
       <c r="H484" s="18" t="n"/>
-      <c r="I484" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I484" s="13" t="n"/>
       <c r="J484" s="13" t="n"/>
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25538,13 +25534,17 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
-        </is>
-      </c>
-      <c r="E485" s="18" t="n"/>
+          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+        </is>
+      </c>
+      <c r="E485" s="18" t="inlineStr">
+        <is>
+          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+        </is>
+      </c>
       <c r="F485" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -25562,7 +25562,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25589,17 +25589,13 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>避免過於寬泛的 CORS 策略</t>
-        </is>
-      </c>
-      <c r="E486" s="18" t="inlineStr">
-        <is>
-          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
-        </is>
-      </c>
+          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
+        </is>
+      </c>
+      <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25617,7 +25613,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25644,12 +25640,12 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+          <t>避免過於寬泛的 CORS 策略</t>
         </is>
       </c>
       <c r="E487" s="18" t="inlineStr">
         <is>
-          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
         </is>
       </c>
       <c r="F487" s="18" t="inlineStr">
@@ -25672,7 +25668,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25699,13 +25695,17 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用平臺加密。</t>
-        </is>
-      </c>
-      <c r="E488" s="18" t="n"/>
+          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+        </is>
+      </c>
+      <c r="E488" s="18" t="inlineStr">
+        <is>
+          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+        </is>
+      </c>
       <c r="F488" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -25723,7 +25723,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25750,7 +25750,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用用戶端加密。</t>
+          <t>確定應使用哪種/是否應使用平臺加密。</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -25774,7 +25774,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25801,17 +25801,13 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
-        </is>
-      </c>
-      <c r="E490" s="18" t="inlineStr">
-        <is>
-          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
-        </is>
-      </c>
+          <t>確定應使用哪種/是否應使用用戶端加密。</t>
+        </is>
+      </c>
+      <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -25829,7 +25825,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25839,17 +25835,54 @@
       <c r="Q490" s="20" t="n"/>
     </row>
     <row r="491">
-      <c r="A491" s="18" t="n"/>
-      <c r="B491" s="18" t="n"/>
-      <c r="C491" s="18" t="n"/>
-      <c r="D491" s="18" t="n"/>
-      <c r="E491" s="18" t="n"/>
-      <c r="F491" s="18" t="n"/>
+      <c r="A491" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B491" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C491" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D491" s="18" t="inlineStr">
+        <is>
+          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+        </is>
+      </c>
+      <c r="E491" s="18" t="inlineStr">
+        <is>
+          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+        </is>
+      </c>
+      <c r="F491" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="13" t="n"/>
+      <c r="I491" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
-      <c r="L491" s="19" t="n"/>
+      <c r="L491" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M491" s="20" t="n"/>
       <c r="N491" s="20" t="n"/>
       <c r="O491" s="20" t="n"/>
@@ -38853,7 +38886,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G492" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39225,7 +39258,7 @@
     <hyperlink ref="I468" r:id="rId365"/>
     <hyperlink ref="I469" r:id="rId366"/>
     <hyperlink ref="I470" r:id="rId367"/>
-    <hyperlink ref="I472" r:id="rId368"/>
+    <hyperlink ref="I471" r:id="rId368"/>
     <hyperlink ref="I473" r:id="rId369"/>
     <hyperlink ref="I474" r:id="rId370"/>
     <hyperlink ref="I475" r:id="rId371"/>
@@ -39236,13 +39269,14 @@
     <hyperlink ref="I480" r:id="rId376"/>
     <hyperlink ref="I481" r:id="rId377"/>
     <hyperlink ref="I482" r:id="rId378"/>
-    <hyperlink ref="I484" r:id="rId379"/>
+    <hyperlink ref="I483" r:id="rId379"/>
     <hyperlink ref="I485" r:id="rId380"/>
     <hyperlink ref="I486" r:id="rId381"/>
     <hyperlink ref="I487" r:id="rId382"/>
     <hyperlink ref="I488" r:id="rId383"/>
     <hyperlink ref="I489" r:id="rId384"/>
     <hyperlink ref="I490" r:id="rId385"/>
+    <hyperlink ref="I491" r:id="rId386"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/waf.zh-Hant.xlsx
@@ -13076,7 +13076,7 @@
       </c>
       <c r="D251" s="18" t="inlineStr">
         <is>
-          <t>使用一個 Entra 租戶來管理 Azure 資源，除非你對多租戶有明確的法規或業務要求。</t>
+          <t>使用一個 Entra 租戶來管理 Azure 資源，除非對多租戶有明確的法規或業務要求。</t>
         </is>
       </c>
       <c r="E251" s="18" t="n"/>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="D254" s="18" t="inlineStr">
         <is>
-          <t>確保 Azure Lighthouse 用於按合作夥伴管理租戶</t>
+          <t>確保合作夥伴使用 Azure Lighthouse 來管理租戶</t>
         </is>
       </c>
       <c r="E254" s="18" t="n"/>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="D255" s="18" t="inlineStr">
         <is>
-          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
+          <t>實施緊急訪問或破屏帳戶，以防止租戶範圍的帳戶鎖定</t>
         </is>
       </c>
       <c r="E255" s="18" t="n"/>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="D256" s="18" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 紀錄與平臺中心的 Azure 監視器整合。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實來源，為組織提供雲原生選項，以滿足日誌收集和保留方面的要求。</t>
+          <t>將 Microsoft Entra ID 紀錄與平臺中心 Azure 監視器整合。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="E256" s="18" t="n"/>
@@ -13386,7 +13386,7 @@
       </c>
       <c r="D257" s="18" t="inlineStr">
         <is>
-          <t>強制實施與雲操作模型一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配範圍。</t>
+          <t>強制實施與雲操作模型一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
         </is>
       </c>
       <c r="E257" s="18" t="n"/>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="D259" s="18" t="inlineStr">
         <is>
-          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證</t>
+          <t>對具有 Azure 環境許可權的任何使用者強制實施多重身份驗證</t>
         </is>
       </c>
       <c r="E259" s="18" t="n"/>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="D260" s="18" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問許可權和最低特權</t>
+          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問和最低特權</t>
         </is>
       </c>
       <c r="E260" s="18" t="n"/>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="D265" s="18" t="inlineStr">
         <is>
-          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
+          <t>避免使用本地同步帳戶進行 Microsoft Entra ID 角色分配。</t>
         </is>
       </c>
       <c r="E265" s="18" t="n"/>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="D267" s="18" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織路由器和 MSEE 之間的第二層級別加密流量。該圖顯示了流中的這種加密。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織的路由器和 MSEE 之間的第二層級別加密流量。該圖顯示了流中的此加密。</t>
         </is>
       </c>
       <c r="E267" s="18" t="n"/>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="D268" s="18" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>對於不使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="E268" s="18" t="n"/>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="D269" s="18" t="inlineStr">
         <is>
-          <t>利用基於傳統中心輻射型網路拓撲的網路設計，實現需要最大靈活性的網路方案。</t>
+          <t>利用基於傳統中心輻射型網路拓撲的網路設計，適用於需要最大靈活性的網路方案。</t>
         </is>
       </c>
       <c r="E269" s="18" t="n"/>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="D270" s="18" t="inlineStr">
         <is>
-          <t>確保共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或中心虛擬網路中的合作夥伴 NVA。如有必要，還可以部署 DNS 伺服器。</t>
+          <t>確保共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA 位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
         </is>
       </c>
       <c r="E270" s="18" t="n"/>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="D272" s="18" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="E272" s="18" t="n"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="D276" s="18" t="inlineStr">
         <is>
-          <t>將分支虛擬網路連接到中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
+          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
         </is>
       </c>
       <c r="E276" s="18" t="n"/>
@@ -14525,7 +14525,7 @@
       </c>
       <c r="D278" s="18" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
+          <t>配置 VNet 對等互連時，使用「允許流向遠端虛擬網路的流量」設置</t>
         </is>
       </c>
       <c r="E278" s="18" t="n"/>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="D279" s="18" t="inlineStr">
         <is>
-          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
+          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主連接的可能性。</t>
         </is>
       </c>
       <c r="E279" s="18" t="n"/>
@@ -14635,12 +14635,12 @@
       </c>
       <c r="D280" s="18" t="inlineStr">
         <is>
-          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
+          <t>使用多個 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
         </is>
       </c>
       <c r="E280" s="18" t="inlineStr">
         <is>
-          <t>可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
+          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
         </is>
       </c>
       <c r="F280" s="18" t="inlineStr">
@@ -14753,7 +14753,7 @@
       </c>
       <c r="D282" s="18" t="inlineStr">
         <is>
-          <t>確保僅在達到證明其成本合理的頻寬時才使用無限數據 ExpressRoute 線路。</t>
+          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="E282" s="18" t="n"/>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="D283" s="18" t="inlineStr">
         <is>
-          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
+          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，請利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
         </is>
       </c>
       <c r="E283" s="18" t="n"/>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="D285" s="18" t="inlineStr">
         <is>
-          <t>對於需要頻寬高於 10 Gbps 或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="E285" s="18" t="n"/>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="D290" s="18" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時，例如用於分離生產環境和非生產環境，請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
+          <t>當需要流量隔離或專用頻寬時（例如用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
         </is>
       </c>
       <c r="E290" s="18" t="n"/>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="D291" s="18" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route 見解監視 ExpressRoute 可用性和利用率。</t>
+          <t>使用內置的 Express Route Insights 監視 ExpressRoute 可用性和利用率。</t>
         </is>
       </c>
       <c r="E291" s="18" t="n"/>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="D292" s="18" t="inlineStr">
         <is>
-          <t>使用連接監視器監視整個網路的連接，尤其是本地和 Azure 之間的連接。</t>
+          <t>使用連接監視器對整個網路進行連接監視，尤其是在本地和 Azure 之間。</t>
         </is>
       </c>
       <c r="E292" s="18" t="n"/>
@@ -15366,7 +15366,7 @@
       </c>
       <c r="D293" s="18" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路來實現冗餘。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
         </is>
       </c>
       <c r="E293" s="18" t="n"/>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="D294" s="18" t="inlineStr">
         <is>
-          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
+          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路的情況下。</t>
         </is>
       </c>
       <c r="E294" s="18" t="n"/>
@@ -15527,7 +15527,7 @@
       </c>
       <c r="D296" s="18" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。負載應在兩個連接之間共用，理想情況下應作為主動/主動共用，儘管也支持主動/被動。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用，最好是主動/主動，儘管也支持主動/被動。</t>
         </is>
       </c>
       <c r="E296" s="18" t="n"/>
@@ -15578,7 +15578,7 @@
       </c>
       <c r="D297" s="18" t="inlineStr">
         <is>
-          <t>確保 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>確保不使用 Azure 區域和本地位置之間的重疊 IP 位址空間</t>
         </is>
       </c>
       <c r="E297" s="18" t="n"/>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="D298" s="18" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍中的 IP 位址 （RFC 1918）。</t>
+          <t>使用專用 Internet 的位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
         </is>
       </c>
       <c r="E298" s="18" t="n"/>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="D299" s="18" t="inlineStr">
         <is>
-          <t>確保不會浪費 IP 位址空間，不要建立不必要的大型虛擬網路（例如 /16）</t>
+          <t>確保不浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）</t>
         </is>
       </c>
       <c r="E299" s="18" t="n"/>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="D306" s="18" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
+          <t>在子網 /26 或更大版本中使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="E306" s="18" t="n"/>
@@ -16128,7 +16128,7 @@
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="E307" s="18" t="n"/>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略來管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略來滿足特定區域的要求。</t>
+          <t>創建全域 Azure 防火牆策略以管理整個全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="E308" s="18" t="n"/>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="E310" s="18" t="n"/>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="E311" s="18" t="n"/>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
+          <t>部署入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並與它們要保護並向 Internet 公開的應用一起部署。</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 防護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="E313" s="18" t="n"/>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選流向 Internet 的出口流量。</t>
+          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="E314" s="18" t="n"/>
@@ -16788,7 +16788,7 @@
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>在即將到來的重大變更之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
@@ -16834,12 +16834,12 @@
       </c>
       <c r="C320" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
@@ -16861,13 +16861,13 @@
       </c>
       <c r="J320" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -16884,17 +16884,17 @@
       </c>
       <c r="B321" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C321" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
+          <t>使用「資源特定目標」表添加診斷設置以保存所有 Azure 防火牆部署的日誌。</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
@@ -16916,13 +16916,13 @@
       </c>
       <c r="J321" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K321" s="19" t="n"/>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -16939,23 +16939,23 @@
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
       <c r="F322" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -16971,17 +16971,13 @@
       </c>
       <c r="J322" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K322" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17003,18 +16999,18 @@
       </c>
       <c r="C323" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>使用 FQDN（而不是 Azure 防火牆或 NVA 中的 IP 位址）篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
       <c r="F323" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -17036,7 +17032,7 @@
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17058,18 +17054,18 @@
       </c>
       <c r="C324" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17083,15 +17079,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J324" s="13" t="n"/>
-      <c r="K324" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J324" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17113,18 +17109,18 @@
       </c>
       <c r="C325" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17138,15 +17134,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J325" s="13" t="n"/>
+      <c r="J325" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="K325" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
         </is>
       </c>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17168,12 +17168,12 @@
       </c>
       <c r="C326" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
@@ -17193,15 +17193,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J326" s="13" t="n"/>
-      <c r="K326" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="J326" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17223,18 +17223,18 @@
       </c>
       <c r="C327" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17248,15 +17248,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J327" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K327" s="19" t="n"/>
+      <c r="J327" s="13" t="n"/>
+      <c r="K327" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17278,18 +17278,18 @@
       </c>
       <c r="C328" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>應用程式團隊應在子網級別的NSG上使用應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
+          <t>至少對閘道子網使用 /27 前置綴</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17298,20 +17298,20 @@
         </is>
       </c>
       <c r="H328" s="18" t="n"/>
-      <c r="I328" s="13" t="n"/>
-      <c r="J328" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="I328" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J328" s="13" t="n"/>
       <c r="K328" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17338,7 +17338,7 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
@@ -17358,15 +17358,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J329" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K329" s="19" t="n"/>
+      <c r="J329" s="13" t="n"/>
+      <c r="K329" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
+        </is>
+      </c>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
@@ -17415,13 +17415,13 @@
       </c>
       <c r="J330" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17438,7 +17438,7 @@
       </c>
       <c r="B331" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C331" s="18" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
+          <t>應用程式團隊應使用子網級別 NSG 中的應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
@@ -17463,24 +17463,20 @@
         </is>
       </c>
       <c r="H331" s="18" t="n"/>
-      <c r="I331" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I331" s="13" t="n"/>
       <c r="J331" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K331" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
         </is>
       </c>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17497,17 +17493,17 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量流。</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
@@ -17529,13 +17525,13 @@
       </c>
       <c r="J332" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -17552,17 +17548,17 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量。</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -17582,11 +17578,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J333" s="13" t="n"/>
+      <c r="J333" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -17603,23 +17603,23 @@
       </c>
       <c r="B334" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C334" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
+          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -17633,11 +17633,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J334" s="13" t="n"/>
-      <c r="K334" s="19" t="n"/>
+      <c r="J334" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K334" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -17654,7 +17662,7 @@
       </c>
       <c r="B335" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C335" s="18" t="inlineStr">
@@ -17664,7 +17672,7 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中顯式描述你的方案</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
@@ -17686,17 +17694,13 @@
       </c>
       <c r="J335" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K335" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
+      <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -17713,7 +17717,7 @@
       </c>
       <c r="B336" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C336" s="18" t="inlineStr">
@@ -17723,7 +17727,7 @@
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
@@ -17747,7 +17751,7 @@
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -17764,7 +17768,7 @@
       </c>
       <c r="B337" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C337" s="18" t="inlineStr">
@@ -17774,13 +17778,13 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -17798,7 +17802,7 @@
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -17815,7 +17819,7 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
@@ -17825,7 +17829,7 @@
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
@@ -17845,11 +17849,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J338" s="13" t="n"/>
-      <c r="K338" s="19" t="n"/>
+      <c r="J338" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K338" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -17876,7 +17888,7 @@
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
@@ -17900,7 +17912,7 @@
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -17917,7 +17929,7 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
@@ -17927,7 +17939,7 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
@@ -17951,7 +17963,7 @@
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -17978,13 +17990,13 @@
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>請確保 IaC 部署不會禁用虛擬 WAN 中的分支到分支流量，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -18002,7 +18014,7 @@
       <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18019,23 +18031,23 @@
       </c>
       <c r="B342" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C342" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
       <c r="F342" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -18053,7 +18065,7 @@
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18070,17 +18082,17 @@
       </c>
       <c r="B343" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C343" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受損。</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
@@ -18104,7 +18116,7 @@
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18121,23 +18133,23 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
       <c r="F344" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -18155,7 +18167,7 @@
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18182,13 +18194,13 @@
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制措施，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
       <c r="F345" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -18206,7 +18218,7 @@
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18233,7 +18245,7 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
+          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
@@ -18257,7 +18269,7 @@
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18284,13 +18296,13 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
       <c r="F347" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -18308,7 +18320,7 @@
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18335,7 +18347,7 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
@@ -18359,7 +18371,7 @@
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18386,14 +18398,10 @@
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="E349" s="18" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>如果需要，在最高適當級別管理策略分配，並在最低級別進行排除。</t>
+        </is>
+      </c>
+      <c r="E349" s="18" t="n"/>
       <c r="F349" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -18414,7 +18422,7 @@
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18441,13 +18449,13 @@
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18465,7 +18473,7 @@
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -18492,7 +18500,7 @@
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
@@ -18512,15 +18520,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J351" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J351" s="13" t="n"/>
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -18547,10 +18551,14 @@
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
-        </is>
-      </c>
-      <c r="E352" s="18" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="E352" s="18" t="inlineStr">
+        <is>
+          <t>通過將資源策略參與者角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="F352" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -18571,7 +18579,7 @@
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -18598,7 +18606,7 @@
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
@@ -18622,7 +18630,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -18649,7 +18657,7 @@
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制執行這些要求</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -18664,12 +18672,20 @@
         </is>
       </c>
       <c r="H354" s="18" t="n"/>
-      <c r="I354" s="13" t="n"/>
-      <c r="J354" s="13" t="n"/>
+      <c r="I354" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J354" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -18691,18 +18707,18 @@
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>對於主權著陸區，主權政策基線的策略倡議被部署並在正確的 MG 級別進行分配。</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -18720,7 +18736,7 @@
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -18737,17 +18753,17 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
+          <t>對於主權著陸區，記錄了策略映射的主權控制目標。</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
@@ -18771,7 +18787,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -18788,23 +18804,23 @@
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>對於主權著陸區，“主權控制目標到政策映射”的 CRUD 流程已經到位。</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
       <c r="F357" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -18813,16 +18829,12 @@
         </is>
       </c>
       <c r="H357" s="18" t="n"/>
-      <c r="I357" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I357" s="13" t="n"/>
       <c r="J357" s="13" t="n"/>
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -18839,23 +18851,23 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
       <c r="F358" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -18873,7 +18885,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -18895,12 +18907,12 @@
       </c>
       <c r="C359" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
@@ -18924,7 +18936,7 @@
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -18946,18 +18958,18 @@
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
       <c r="F360" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -18971,15 +18983,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J360" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J360" s="13" t="n"/>
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19001,12 +19009,12 @@
       </c>
       <c r="C361" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測數據集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
@@ -19026,15 +19034,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J361" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J361" s="13" t="n"/>
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19051,17 +19055,17 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
@@ -19081,15 +19085,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J362" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="J362" s="13" t="n"/>
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19111,12 +19111,12 @@
       </c>
       <c r="C363" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，除非 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區。</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
@@ -19138,13 +19138,13 @@
       </c>
       <c r="J363" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19166,12 +19166,12 @@
       </c>
       <c r="C364" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據以存檔狀態保存長達 7 年。</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19193,13 +19193,13 @@
       </c>
       <c r="J364" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19221,12 +19221,12 @@
       </c>
       <c r="C365" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
@@ -19248,13 +19248,13 @@
       </c>
       <c r="J365" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19276,12 +19276,12 @@
       </c>
       <c r="C366" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用 Azure Policy 監視來賓虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能，可説明應用程式團隊工作負載毫不費力地立即使用功能。</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
@@ -19303,13 +19303,13 @@
       </c>
       <c r="J366" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19331,12 +19331,12 @@
       </c>
       <c r="C367" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
@@ -19356,11 +19356,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J367" s="13" t="n"/>
+      <c r="J367" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19382,12 +19386,12 @@
       </c>
       <c r="C368" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
@@ -19407,11 +19411,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J368" s="13" t="n"/>
+      <c r="J368" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19433,12 +19441,12 @@
       </c>
       <c r="C369" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
@@ -19458,11 +19466,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="13" t="n"/>
+      <c r="J369" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19489,7 +19501,7 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
@@ -19513,7 +19525,7 @@
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19530,17 +19542,17 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
@@ -19564,7 +19576,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19581,24 +19593,20 @@
       </c>
       <c r="B372" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
-        </is>
-      </c>
-      <c r="E372" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
+        </is>
+      </c>
+      <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -19619,7 +19627,7 @@
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19641,12 +19649,12 @@
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
@@ -19670,7 +19678,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19687,17 +19695,17 @@
       </c>
       <c r="B374" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
@@ -19721,7 +19729,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19738,7 +19746,7 @@
       </c>
       <c r="B375" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C375" s="18" t="inlineStr">
@@ -19748,13 +19756,17 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
-        </is>
-      </c>
-      <c r="E375" s="18" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="E375" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -19772,7 +19784,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19789,7 +19801,7 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
@@ -19799,13 +19811,13 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -19823,7 +19835,7 @@
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -19840,17 +19852,17 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
@@ -19874,7 +19886,7 @@
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -19891,17 +19903,17 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>在支援可用性區域的區域中為虛擬機利用可用性區域。</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
@@ -19925,7 +19937,7 @@
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -19942,23 +19954,23 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
       <c r="F379" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -19973,14 +19985,10 @@
         </is>
       </c>
       <c r="J379" s="13" t="n"/>
-      <c r="K379" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -19997,17 +20005,17 @@
       </c>
       <c r="B380" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
@@ -20031,7 +20039,7 @@
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20058,13 +20066,13 @@
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20082,7 +20090,7 @@
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20109,7 +20117,7 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
@@ -20130,10 +20138,14 @@
         </is>
       </c>
       <c r="J382" s="13" t="n"/>
-      <c r="K382" s="19" t="n"/>
+      <c r="K382" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20160,7 +20172,7 @@
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
@@ -20184,7 +20196,7 @@
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20211,7 +20223,7 @@
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20235,7 +20247,7 @@
       <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20262,7 +20274,7 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20286,7 +20298,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20313,7 +20325,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20337,7 +20349,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20364,7 +20376,7 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
@@ -20388,7 +20400,7 @@
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20415,7 +20427,7 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的密鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -20439,7 +20451,7 @@
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20466,7 +20478,7 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
@@ -20490,7 +20502,7 @@
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20512,12 +20524,12 @@
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -20541,7 +20553,7 @@
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20563,18 +20575,18 @@
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此操作。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -20592,7 +20604,7 @@
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20614,18 +20626,18 @@
       </c>
       <c r="C392" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -20643,7 +20655,7 @@
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20665,18 +20677,18 @@
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20694,7 +20706,7 @@
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20716,12 +20728,12 @@
       </c>
       <c r="C394" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
@@ -20745,7 +20757,7 @@
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20767,18 +20779,18 @@
       </c>
       <c r="C395" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -20796,7 +20808,7 @@
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20818,18 +20830,18 @@
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
       <c r="F396" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -20847,7 +20859,7 @@
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -20869,18 +20881,18 @@
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -20898,7 +20910,7 @@
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -20920,12 +20932,12 @@
       </c>
       <c r="C398" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
@@ -20949,7 +20961,7 @@
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -20971,18 +20983,18 @@
       </c>
       <c r="C399" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>應啟用到存儲帳戶的安全傳輸</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21000,7 +21012,7 @@
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21022,18 +21034,18 @@
       </c>
       <c r="C400" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -21051,7 +21063,7 @@
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21068,23 +21080,23 @@
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21102,7 +21114,7 @@
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21114,28 +21126,28 @@
     <row r="402">
       <c r="A402" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>如果將客戶管理的 TLS 證書用於 Azure Front Door，請使用“最新”證書版本。降低手動續訂證書導致的中斷風險</t>
+          <t>應啟用安全傳輸到存儲帳戶</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
       <c r="F402" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -21153,7 +21165,7 @@
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21165,7 +21177,7 @@
     <row r="403">
       <c r="A403" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B403" s="18" t="inlineStr">
@@ -21175,18 +21187,18 @@
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>確保使用應用程式閘道 v2 SKU</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
       <c r="F403" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -21200,19 +21212,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J403" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K403" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J403" s="13" t="n"/>
+      <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21224,28 +21228,28 @@
     <row r="404">
       <c r="A404" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>確保將標準 SKU 用於 Azure 負載均衡器</t>
+          <t>使用 Key Vault 機密避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或金鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
       <c r="F404" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -21260,14 +21264,10 @@
         </is>
       </c>
       <c r="J404" s="13" t="n"/>
-      <c r="K404" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21284,17 +21284,17 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>確保負載均衡器前端IP位址是區域冗餘的（除非需要區域性前端）。</t>
+          <t>如果將客戶管理的 TLS 證書用於 Azure Front Door，請使用“最新”證書版本。降低手動續訂證書導致的中斷風險</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
@@ -21318,7 +21318,7 @@
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>應用程式閘道 v2 應部署在IP前綴等於或大於 /24 的子網中</t>
+          <t>確保使用應用程式閘道 v2 SKU</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
@@ -21372,12 +21372,12 @@
       </c>
       <c r="K406" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
         </is>
       </c>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21399,19 +21399,15 @@
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>部署 Azure 應用程式閘道 v2 或合作夥伴 NVA，用於在登陸區域虛擬網路中代理入站 HTTP（S） 連接，並使用它們所保護的應用。</t>
-        </is>
-      </c>
-      <c r="E407" s="18" t="inlineStr">
-        <is>
-          <t>一般而言，反向代理的管理，特別是 WAF 的管理更接近應用程式而不是網路，因此它們與應用程式屬於同一訂閱。如果應用程式閘道和 WAF 由單個團隊管理，則在連接訂閱中集中應用程式閘道和 WAF 可能是可以的。</t>
-        </is>
-      </c>
+          <t>確保將標準 SKU 用於 Azure 負載均衡器</t>
+        </is>
+      </c>
+      <c r="E407" s="18" t="n"/>
       <c r="F407" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -21428,15 +21424,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J407" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K407" s="19" t="n"/>
+      <c r="J407" s="13" t="n"/>
+      <c r="K407" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21458,12 +21454,12 @@
       </c>
       <c r="C408" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
+          <t>確保負載均衡器前端IP位址是區域冗餘的（除非需要區域性前端）。</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21483,15 +21479,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J408" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J408" s="13" t="n"/>
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21508,7 +21500,7 @@
       </c>
       <c r="B409" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C409" s="18" t="inlineStr">
@@ -21518,7 +21510,7 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>使用至少兩個實例數配置自動縮放。</t>
+          <t>應用程式閘道 v2 應部署在IP前綴等於或大於 /24 的子網中</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21545,12 +21537,12 @@
       </c>
       <c r="K409" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21567,7 +21559,7 @@
       </c>
       <c r="B410" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C410" s="18" t="inlineStr">
@@ -21577,10 +21569,14 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>跨可用性區域部署應用程式閘道</t>
-        </is>
-      </c>
-      <c r="E410" s="18" t="n"/>
+          <t>部署 Azure 應用程式閘道 v2 或合作夥伴 NVA，用於在登陸區域虛擬網路中代理入站 HTTP（S） 連接，並使用它們所保護的應用。</t>
+        </is>
+      </c>
+      <c r="E410" s="18" t="inlineStr">
+        <is>
+          <t>一般而言，反向代理的管理，特別是 WAF 的管理更接近應用程式而不是網路，因此它們與應用程式屬於同一訂閱。如果應用程式閘道和 WAF 由單個團隊管理，則在連接訂閱中集中應用程式閘道和 WAF 可能是可以的。</t>
+        </is>
+      </c>
       <c r="F410" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -21602,14 +21598,10 @@
           <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
-      <c r="K410" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21631,12 +21623,12 @@
       </c>
       <c r="C411" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>將 Azure Front Door 與 WAF 策略配合使用，以交付和幫助保護跨多個 Azure 區域的全域 HTTP/S 應用。</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -21664,7 +21656,7 @@
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21681,17 +21673,17 @@
       </c>
       <c r="B412" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C412" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>使用 Front Door 和應用程式閘道幫助保護 HTTP/S 應用時，請在 Front Door 中使用 WAF 策略。鎖定應用程式閘道以僅接收來自 Front Door 的流量。</t>
+          <t>使用至少兩個實例數配置自動縮放。</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
@@ -21713,13 +21705,17 @@
       </c>
       <c r="J412" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K412" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K412" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21741,18 +21737,18 @@
       </c>
       <c r="C413" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>使用流量管理器提供跨 HTTP/S 以外的協定的全域應用。</t>
+          <t>跨可用性區域部署應用程式閘道</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
       <c r="F413" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -21768,13 +21764,17 @@
       </c>
       <c r="J413" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K413" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K413" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21796,18 +21796,18 @@
       </c>
       <c r="C414" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>如果使用者只需要訪問內部應用程式，是否考慮將 Microsoft Entra ID 應用程式代理作為 Azure 虛擬桌面 （AVD） 的替代方法？</t>
+          <t>將 Azure Front Door 與 WAF 策略配合使用，以交付和幫助保護跨多個 Azure 區域的全域 HTTP/S 應用。</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
       <c r="F414" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -21823,13 +21823,13 @@
       </c>
       <c r="J414" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21851,12 +21851,12 @@
       </c>
       <c r="C415" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>若要減少為網路中的傳入連接打開的防火牆埠數，請考慮使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式的安全且經過身份驗證的訪問。</t>
+          <t>使用 Front Door 和應用程式閘道幫助保護 HTTP/S 應用時，請在 Front Door 中使用 WAF 策略。鎖定應用程式閘道以僅接收來自 Front Door 的流量。</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
@@ -21878,13 +21878,13 @@
       </c>
       <c r="J415" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21901,17 +21901,17 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>在「預防」模式下部署 Front Door 的 WAF 策略。</t>
+          <t>使用流量管理器提供跨 HTTP/S 以外的協定的全域應用。</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -21931,15 +21931,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J416" s="13" t="n"/>
-      <c r="K416" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="J416" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -21961,18 +21961,18 @@
       </c>
       <c r="C417" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>避免將 Azure 流量管理器和 Azure Front Door 結合使用。</t>
+          <t>如果使用者只需要訪問內部應用程式，是否考慮將 Microsoft Entra ID 應用程式代理作為 Azure 虛擬桌面 （AVD） 的替代方法？</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -21986,11 +21986,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J417" s="13" t="n"/>
+      <c r="J417" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22012,18 +22016,18 @@
       </c>
       <c r="C418" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>在 Azure Front Door 和源上使用相同的功能變數名稱。主機名不匹配可能會導致細微的錯誤。</t>
+          <t>若要減少為網路中的傳入連接打開的防火牆埠數，請考慮使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式的安全且經過身份驗證的訪問。</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22037,11 +22041,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J418" s="13" t="n"/>
+      <c r="J418" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22058,7 +22066,7 @@
       </c>
       <c r="B419" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C419" s="18" t="inlineStr">
@@ -22068,13 +22076,13 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>當 Azure Front Door 源組中只有一個源時，禁用運行狀況探測。</t>
+          <t>在「預防」模式下部署 Front Door 的 WAF 策略。</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
       <c r="F419" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -22091,12 +22099,12 @@
       <c r="J419" s="13" t="n"/>
       <c r="K419" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
         </is>
       </c>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22113,7 +22121,7 @@
       </c>
       <c r="B420" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C420" s="18" t="inlineStr">
@@ -22123,13 +22131,13 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>為 Azure Front Door 選擇良好的運行狀況探測終結點。請考慮構建運行狀況終結點，以檢查應用程式的所有依賴項。</t>
+          <t>避免將 Azure 流量管理器和 Azure Front Door 結合使用。</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22147,7 +22155,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22164,7 +22172,7 @@
       </c>
       <c r="B421" s="18" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C421" s="18" t="inlineStr">
@@ -22174,13 +22182,13 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>將 HEAD 運行狀況探測與 Azure Front Door 配合使用，以減少 Front Door 發送到應用程式的流量。</t>
+          <t>在 Azure Front Door 和源上使用相同的功能變數名稱。主機名不匹配可能會導致細微的錯誤。</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
       <c r="F421" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -22195,14 +22203,10 @@
         </is>
       </c>
       <c r="J421" s="13" t="n"/>
-      <c r="K421" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22219,23 +22223,23 @@
       </c>
       <c r="B422" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C422" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure NAT 閘道而不是負載均衡器出站規則，以獲得更好的 SNAT 可伸縮性</t>
+          <t>當 Azure Front Door 源組中只有一個源時，禁用運行狀況探測。</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22252,12 +22256,12 @@
       <c r="J422" s="13" t="n"/>
       <c r="K422" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
         </is>
       </c>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22274,7 +22278,7 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
@@ -22284,13 +22288,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>將託管 TLS 證書與 Azure Front Door 配合使用。降低運營成本和因證書續訂而導致的中斷風險。</t>
+          <t>為 Azure Front Door 選擇良好的運行狀況探測終結點。請考慮構建運行狀況終結點，以檢查應用程式的所有依賴項。</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22305,14 +22309,10 @@
         </is>
       </c>
       <c r="J423" s="13" t="n"/>
-      <c r="K423" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22329,7 +22329,7 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>性能</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
@@ -22339,13 +22339,13 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>將 Azure Front Door WAF 配置定義為代碼。通過使用代碼，您可以更輕鬆地採用新的規則集版本並獲得額外的保護。</t>
+          <t>將 HEAD 運行狀況探測與 Azure Front Door 配合使用，以減少 Front Door 發送到應用程式的流量。</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22360,10 +22360,14 @@
         </is>
       </c>
       <c r="J424" s="13" t="n"/>
-      <c r="K424" s="19" t="n"/>
+      <c r="K424" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22380,17 +22384,17 @@
       </c>
       <c r="B425" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C425" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>將端到端 TLS 與 Azure Front Door 配合使用。使用 TLS 進行從用戶端到 Front Door 的連接，以及從 Front Door 到源的連接。</t>
+          <t>使用 Azure NAT 閘道而不是負載均衡器出站規則，以獲得更好的 SNAT 可伸縮性</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -22411,10 +22415,14 @@
         </is>
       </c>
       <c r="J425" s="13" t="n"/>
-      <c r="K425" s="19" t="n"/>
+      <c r="K425" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22431,7 +22439,7 @@
       </c>
       <c r="B426" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C426" s="18" t="inlineStr">
@@ -22441,13 +22449,13 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>將 HTTP 到 HTTPS 重定向與 Azure Front Door 配合使用。通過自動將較舊的用戶端重定向到 HTTPS 請求來支援它們。</t>
+          <t>將託管 TLS 證書與 Azure Front Door 配合使用。降低運營成本和因證書續訂而導致的中斷風險。</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -22462,10 +22470,14 @@
         </is>
       </c>
       <c r="J426" s="13" t="n"/>
-      <c r="K426" s="19" t="n"/>
+      <c r="K426" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22482,7 +22494,7 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
@@ -22492,13 +22504,13 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure Front Door WAF。保護您的應用程式免受一系列攻擊。</t>
+          <t>將 Azure Front Door WAF 配置定義為代碼。通過使用代碼，您可以更輕鬆地採用新的規則集版本並獲得額外的保護。</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -22516,7 +22528,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22543,7 +22555,7 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>針對工作負載優化 Azure Front Door WAF。減少誤報檢測。</t>
+          <t>將端到端 TLS 與 Azure Front Door 配合使用。使用 TLS 進行從用戶端到 Front Door 的連接，以及從 Front Door 到源的連接。</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
@@ -22567,7 +22579,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22594,13 +22606,13 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>啟用在 Azure Front Door WAF 策略中啟用的請求正文檢查功能。</t>
+          <t>將 HTTP 到 HTTPS 重定向與 Azure Front Door 配合使用。通過自動將較舊的用戶端重定向到 HTTPS 請求來支援它們。</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
       <c r="F429" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -22618,7 +22630,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22645,7 +22657,7 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure Front Door WAF 預設規則集。默認規則集檢測並阻止常見攻擊。</t>
+          <t>啟用 Azure Front Door WAF。保護您的應用程式免受一系列攻擊。</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
@@ -22669,7 +22681,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22696,7 +22708,7 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure Front Door WAF 機器人保護規則集。機器人規則檢測好的和壞的機器人。</t>
+          <t>針對工作負載優化 Azure Front Door WAF。減少誤報檢測。</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
@@ -22720,7 +22732,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22747,13 +22759,13 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>使用最新的 Azure Front Door WAF 規則集版本。規則集更新會定期更新，以考慮當前的威脅形勢。</t>
+          <t>啟用在 Azure Front Door WAF 策略中啟用的請求正文檢查功能。</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -22771,7 +22783,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22798,13 +22810,13 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>向 Azure Front Door WAF 添加速率限制。速率限制會阻止客戶端在短時間內意外或有意發送大量流量。</t>
+          <t>啟用 Azure Front Door WAF 預設規則集。默認規則集檢測並阻止常見攻擊。</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -22822,7 +22834,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22849,13 +22861,13 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>對 Azure Front Door WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可針對可能使基礎結構不堪重負的大量請求提供保護。</t>
+          <t>啟用 Azure Front Door WAF 機器人保護規則集。機器人規則檢測好的和壞的機器人。</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -22873,7 +22885,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -22900,13 +22912,13 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>如果您不希望收到來自所有地理區域的流量，請使用地理篩選器來阻止來自非預期國家/地區的流量。</t>
+          <t>使用最新的 Azure Front Door WAF 規則集版本。規則集更新會定期更新，以考慮當前的威脅形勢。</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
       <c r="F435" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -22924,7 +22936,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -22951,7 +22963,7 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door WAF 對流量進行地理篩選時，請指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
+          <t>向 Azure Front Door WAF 添加速率限制。速率限制會阻止客戶端在短時間內意外或有意發送大量流量。</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -22975,7 +22987,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -22997,18 +23009,18 @@
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure 應用程式閘道 WAF 機器人保護規則集 機器人規則可檢測好機器人和壞機器人。</t>
+          <t>對 Azure Front Door WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可針對可能使基礎結構不堪重負的大量請求提供保護。</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
       <c r="F437" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -23026,7 +23038,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23048,18 +23060,18 @@
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>啟用 Azure 應用程式閘道 WAF 策略中啟用的請求正文檢查功能。</t>
+          <t>如果您不希望收到來自所有地理區域的流量，請使用地理篩選器來阻止來自非預期國家/地區的流量。</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23077,7 +23089,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23099,18 +23111,18 @@
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>針對工作負載優化 Azure 應用程式閘道 WAF。減少誤報檢測。</t>
+          <t>使用 Azure Front Door WAF 對流量進行地理篩選時，請指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23128,7 +23140,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23155,7 +23167,7 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>在「防護」模式下部署應用程式閘道的 WAF 策略。</t>
+          <t>啟用 Azure 應用程式閘道 WAF 機器人保護規則集 機器人規則可檢測好機器人和壞機器人。</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23176,14 +23188,10 @@
         </is>
       </c>
       <c r="J440" s="13" t="n"/>
-      <c r="K440" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23210,13 +23218,13 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>向 Azure 應用程式閘道 WAF 添加速率限制。速率限制會阻止客戶端在短時間內意外或有意發送大量流量。</t>
+          <t>啟用 Azure 應用程式閘道 WAF 策略中啟用的請求正文檢查功能。</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23234,7 +23242,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23261,13 +23269,13 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>對 Azure 應用程式閘道 WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可針對可能使基礎結構不堪重負的大量請求提供保護。</t>
+          <t>針對工作負載優化 Azure 應用程式閘道 WAF。減少誤報檢測。</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23285,7 +23293,7 @@
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23312,13 +23320,13 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>如果您不希望收到來自所有地理區域的流量，請使用地理篩選器來阻止來自非預期國家/地區的流量。</t>
+          <t>在「防護」模式下部署應用程式閘道的 WAF 策略。</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23333,10 +23341,14 @@
         </is>
       </c>
       <c r="J443" s="13" t="n"/>
-      <c r="K443" s="19" t="n"/>
+      <c r="K443" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23363,7 +23375,7 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure 應用程式閘道 WAF 對流量進行地理篩選時，請指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
+          <t>向 Azure 應用程式閘道 WAF 添加速率限制。速率限制會阻止客戶端在短時間內意外或有意發送大量流量。</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23387,7 +23399,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23414,7 +23426,7 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>使用最新的 Azure 應用程式閘道 WAF 規則集版本。規則集更新會定期更新，以考慮當前的威脅形勢。</t>
+          <t>對 Azure 應用程式閘道 WAF 速率限制使用高閾值。高速率限制閾值可避免阻止合法流量，同時仍可針對可能使基礎結構不堪重負的大量請求提供保護。</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23438,7 +23450,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23455,7 +23467,7 @@
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
@@ -23465,13 +23477,13 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure 應用程式閘道 WAF 紀錄。</t>
+          <t>如果您不希望收到來自所有地理區域的流量，請使用地理篩選器來阻止來自非預期國家/地區的流量。</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
       <c r="F446" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -23489,7 +23501,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23506,17 +23518,17 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure Front Door WAF 紀錄。</t>
+          <t>使用 Azure 應用程式閘道 WAF 對流量進行地理篩選時，請指定未知 （ZZ） 位置。避免在IP位址無法進行地理匹配時意外阻止合法請求。</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
@@ -23540,7 +23552,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23557,7 +23569,7 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
@@ -23567,7 +23579,7 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>將 Azure 應用程式閘道 WAF 紀錄發送到 Microsoft Sentinel。</t>
+          <t>使用最新的 Azure 應用程式閘道 WAF 規則集版本。規則集更新會定期更新，以考慮當前的威脅形勢。</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23591,7 +23603,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23613,12 +23625,12 @@
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>將 Azure Front Door WAF 日誌發送到 Microsoft Sentinel。</t>
+          <t>添加診斷設置以保存 Azure 應用程式閘道 WAF 紀錄。</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
@@ -23642,7 +23654,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23664,12 +23676,12 @@
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>將 Azure 應用程式閘道 WAF 設定定義為代碼。通過使用代碼，您可以更輕鬆地採用新的規則集版本並獲得額外的保護。</t>
+          <t>添加診斷設置以保存 Azure Front Door WAF 紀錄。</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23693,7 +23705,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23720,7 +23732,7 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>使用 WAF 策略而不是舊版 WAF 配置。</t>
+          <t>將 Azure 應用程式閘道 WAF 紀錄發送到 Microsoft Sentinel。</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -23744,7 +23756,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23761,17 +23773,17 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>篩選後端中的入站流量，以便它們僅接受來自應用程式閘道子網的連接，例如使用NSG。</t>
+          <t>將 Azure Front Door WAF 日誌發送到 Microsoft Sentinel。</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23795,7 +23807,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23807,26 +23819,30 @@
     <row r="453">
       <c r="A453" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
+          <t>將 Azure 應用程式閘道 WAF 設定定義為代碼。通過使用代碼，您可以更輕鬆地採用新的規則集版本並獲得額外的保護。</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
-      <c r="F453" s="18" t="n"/>
+      <c r="F453" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G453" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23842,7 +23858,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23854,26 +23870,30 @@
     <row r="454">
       <c r="A454" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B454" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C454" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+          <t>使用 WAF 策略而不是舊版 WAF 配置。</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
-      <c r="F454" s="18" t="n"/>
+      <c r="F454" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G454" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23889,7 +23909,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23901,26 +23921,30 @@
     <row r="455">
       <c r="A455" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>可靠性</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+          <t>篩選後端中的入站流量，以便它們僅接受來自應用程式閘道子網的連接，例如使用NSG。</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
-      <c r="F455" s="18" t="n"/>
+      <c r="F455" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="G455" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -23936,7 +23960,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -23963,7 +23987,7 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+          <t>Azure Cache for Redis 支持高級層和企業層中的區域冗餘配置。區域冗餘緩存可以將其節點放置在同一區域中的不同 Azure 可用性區域中。它消除了數據中心或可用區中斷作為單點故障，並提高了緩存的整體可用性。</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
@@ -23983,7 +24007,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -23995,34 +24019,26 @@
     <row r="457">
       <c r="A457" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>請考慮「存儲的 Azure 安全基線”</t>
-        </is>
-      </c>
-      <c r="E457" s="18" t="inlineStr">
-        <is>
-          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
-        </is>
-      </c>
-      <c r="F457" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>由於緩存數據存儲在記憶體中，因此多個節點的罕見和計劃外故障可能會導致所有數據被丟棄。為了避免完全丟失數據，Redis 持久性允許你定期拍攝記憶體中數據的快照，並將其存儲到存儲帳戶中。</t>
+        </is>
+      </c>
+      <c r="E457" s="18" t="n"/>
+      <c r="F457" s="18" t="n"/>
       <c r="G457" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -24038,7 +24054,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24050,34 +24066,26 @@
     <row r="458">
       <c r="A458" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B458" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C458" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>考慮將專用終結點用於 Azure 存儲</t>
-        </is>
-      </c>
-      <c r="E458" s="18" t="inlineStr">
-        <is>
-          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
-        </is>
-      </c>
-      <c r="F458" s="18" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+          <t>使用異地冗餘存儲帳戶保存 Azure Cache for Redis 數據，或在異地冗餘不可用的情況下進行區域冗餘</t>
+        </is>
+      </c>
+      <c r="E458" s="18" t="n"/>
+      <c r="F458" s="18" t="n"/>
       <c r="G458" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -24093,7 +24101,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24105,34 +24113,26 @@
     <row r="459">
       <c r="A459" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>可靠性</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
-        </is>
-      </c>
-      <c r="E459" s="18" t="inlineStr">
-        <is>
-          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
-        </is>
-      </c>
-      <c r="F459" s="18" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
+          <t>異地複製是一種用於連結兩個或多個 Azure Cache for Redis 實例的機制，通常跨越兩個 Azure 區域。異地複製主要用於跨區域災難恢復。兩個高級層緩存實例通過異地複製進行連接，以提供對主緩存的讀取和寫入，並將該數據複製到輔助緩存。</t>
+        </is>
+      </c>
+      <c r="E459" s="18" t="n"/>
+      <c r="F459" s="18" t="n"/>
       <c r="G459" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -24148,7 +24148,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24175,17 +24175,17 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
+          <t>請考慮「存儲的 Azure 安全基線”</t>
         </is>
       </c>
       <c r="E460" s="18" t="inlineStr">
         <is>
-          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
+          <t>應用與存儲相關的 Microsoft 雲安全基準中的指導</t>
         </is>
       </c>
       <c r="F460" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -24203,7 +24203,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24230,17 +24230,17 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>為 blob 啟用“軟刪除”</t>
+          <t>考慮將專用終結點用於 Azure 存儲</t>
         </is>
       </c>
       <c r="E461" s="18" t="inlineStr">
         <is>
-          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
+          <t>默認情況下，Azure 儲存具有公共IP位址，並且可通過Internet訪問。專用終結點允許僅向需要訪問的 Azure 計算資源安全地公開 Azure 存儲，從而消除對公共 Internet 的暴露</t>
         </is>
       </c>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24258,7 +24258,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24285,12 +24285,12 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>禁用 blob 的“軟刪除”</t>
+          <t>確保較舊的存儲帳戶未使用“經典部署模型”</t>
         </is>
       </c>
       <c r="E462" s="18" t="inlineStr">
         <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>新創建的存儲帳戶是使用ARM部署模型創建的，因此 RBAC、審核等都已啟用。確保訂閱中沒有具有經典部署模型的舊存儲帳戶</t>
         </is>
       </c>
       <c r="F462" s="18" t="inlineStr">
@@ -24313,7 +24313,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24340,12 +24340,12 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>為容器啟用“軟刪除”</t>
+          <t>為所有存儲帳戶啟用 Microsoft DefenderEnable Defender for all of your storage accounts</t>
         </is>
       </c>
       <c r="E463" s="18" t="inlineStr">
         <is>
-          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
+          <t>利用 Microsoft Defender 瞭解可疑活動和錯誤配置。</t>
         </is>
       </c>
       <c r="F463" s="18" t="inlineStr">
@@ -24368,7 +24368,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24395,12 +24395,12 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>禁用容器的“軟刪除”</t>
+          <t>為 blob 啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E464" s="18" t="inlineStr">
         <is>
-          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
+          <t>軟刪除機制允許恢復意外刪除的 Blob。</t>
         </is>
       </c>
       <c r="F464" s="18" t="inlineStr">
@@ -24423,7 +24423,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24450,17 +24450,17 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>在存儲帳戶上啟用資源鎖</t>
+          <t>禁用 blob 的“軟刪除”</t>
         </is>
       </c>
       <c r="E465" s="18" t="inlineStr">
         <is>
-          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24478,7 +24478,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24505,12 +24505,12 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>考慮不可變的 blob</t>
+          <t>為容器啟用“軟刪除”</t>
         </is>
       </c>
       <c r="E466" s="18" t="inlineStr">
         <is>
-          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
+          <t>容器的軟刪除使你能夠在刪除容器后恢復容器，例如從意外刪除操作中恢復。</t>
         </is>
       </c>
       <c r="F466" s="18" t="inlineStr">
@@ -24533,7 +24533,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24560,17 +24560,17 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
+          <t>禁用容器的“軟刪除”</t>
         </is>
       </c>
       <c r="E467" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
+          <t>請考慮有選擇地禁用某些 blob 容器的「軟刪除」 例如，如果應用程式必須確保立即刪除已刪除的資訊，例如出於機密性、隱私或合規性原因。</t>
         </is>
       </c>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24588,7 +24588,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24615,12 +24615,12 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
+          <t>在存儲帳戶上啟用資源鎖</t>
         </is>
       </c>
       <c r="E468" s="18" t="inlineStr">
         <is>
-          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
+          <t>通過強制使用者在刪除之前先刪除刪除鎖，防止意外刪除存儲帳戶</t>
         </is>
       </c>
       <c r="F468" s="18" t="inlineStr">
@@ -24643,7 +24643,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24670,17 +24670,17 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
+          <t>考慮不可變的 blob</t>
         </is>
       </c>
       <c r="E469" s="18" t="inlineStr">
         <is>
-          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
+          <t>請考慮對 blob 使用“合法保留”或“基于時間的保留”策略，這樣就無法刪除 blob、容器或存儲帳戶。請注意，「不可能」實際上意味著「不可能」;存儲帳戶包含不可變 blob 後，「擺脫」該存儲帳戶的唯一方法是取消 Azure 訂閱。</t>
         </is>
       </c>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24698,7 +24698,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24725,12 +24725,12 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
+          <t>需要 HTTPS，即在儲存帳戶上禁用埠 80</t>
         </is>
       </c>
       <c r="E470" s="18" t="inlineStr">
         <is>
-          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
+          <t>請考慮禁用對存儲帳戶的未受保護的 HTTP/80 訪問，以便對所有數據傳輸進行加密、完整性保護，並對伺服器進行身份驗證。</t>
         </is>
       </c>
       <c r="F470" s="18" t="inlineStr">
@@ -24753,7 +24753,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24780,17 +24780,17 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>IaM 許可權中的最低特權</t>
+          <t>強制實施 HTTPS（禁用 HTTP）時，請檢查是否未對儲存帳戶使用自定義域 （CNAME）。</t>
         </is>
       </c>
       <c r="E471" s="18" t="inlineStr">
         <is>
-          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
+          <t>在儲存帳戶上配置自定義域（主機名）時，請檢查是否需要 TLS/HTTPS;如果是這樣，可能需要將 Azure CDN 放在存儲帳戶的前面。</t>
         </is>
       </c>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -24799,12 +24799,16 @@
         </is>
       </c>
       <c r="H471" s="18" t="n"/>
-      <c r="I471" s="13" t="n"/>
+      <c r="I471" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J471" s="13" t="n"/>
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24831,17 +24835,17 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
+          <t>將共享訪問簽名 （SAS） 令牌限製為僅 HTTPS 連接</t>
         </is>
       </c>
       <c r="E472" s="18" t="inlineStr">
         <is>
-          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
+          <t>當用戶端使用SAS令牌訪問 blob 資料時，要求使用 HTTPS 有助於將憑據丟失的風險降至最低。</t>
         </is>
       </c>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24859,7 +24863,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24886,12 +24890,12 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
+          <t>使用 Azure Active Directory （Azure AD） 令牌進行 blob 訪問</t>
         </is>
       </c>
       <c r="E473" s="18" t="inlineStr">
         <is>
-          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
+          <t>在可能的情況下，AAD 令牌應優先於共用訪問簽名</t>
         </is>
       </c>
       <c r="F473" s="18" t="inlineStr">
@@ -24914,7 +24918,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24941,17 +24945,17 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
+          <t>IaM 許可權中的最低特權</t>
         </is>
       </c>
       <c r="E474" s="18" t="inlineStr">
         <is>
-          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
+          <t>將角色分配給使用者、組或應用程式時，請僅向該安全主體授予他們執行任務所需的許可權。限制對資源的訪問有助於防止無意和惡意濫用數據。</t>
         </is>
       </c>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -24960,16 +24964,12 @@
         </is>
       </c>
       <c r="H474" s="18" t="n"/>
-      <c r="I474" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I474" s="13" t="n"/>
       <c r="J474" s="13" t="n"/>
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -24996,17 +24996,17 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
+          <t>使用 SAS 時，首選「使用者委派 SAS」，而不是基於存儲帳戶密鑰的 SAS。</t>
         </is>
       </c>
       <c r="E475" s="18" t="inlineStr">
         <is>
-          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
+          <t>使用者委派 SAS 使用 Azure Active Directory （Azure AD） 憑據以及為 SAS 指定的許可權進行保護。使用者委派 SAS 在範圍和功能方面類似於服務 SAS，但比服務 SAS 具有安全優勢。</t>
         </is>
       </c>
       <c r="F475" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -25024,7 +25024,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25051,17 +25051,17 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>考慮配置 SAS 過期策略</t>
+          <t>請考慮禁用存儲帳戶密鑰，以便僅支援 AAD 訪問（和使用者委派 SAS）。</t>
         </is>
       </c>
       <c r="E476" s="18" t="inlineStr">
         <is>
-          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
+          <t>存儲帳戶金鑰（“共用金鑰”）幾乎沒有審核功能。雖然可以監控誰/何時獲取密鑰副本，但一旦密鑰掌握在多個人手中，就不可能將使用方式歸因於特定使用者。僅依靠 AAD 身份驗證可以更輕鬆地將存儲存取許可權綁定到使用者。</t>
         </is>
       </c>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25079,7 +25079,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25106,17 +25106,17 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>考慮將 SAS 連結到儲存存取策略</t>
+          <t>請考慮使用 Azure Monitor 審核存儲帳戶上的控制平面操作</t>
         </is>
       </c>
       <c r="E477" s="18" t="inlineStr">
         <is>
-          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
+          <t>使用活動日誌數據來標識查看或更改存儲帳戶安全性的“時間”、“人員”、“內容”和“方式”（即存儲帳戶密鑰、訪問策略等）。</t>
         </is>
       </c>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25134,7 +25134,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25161,10 +25161,14 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
-        </is>
-      </c>
-      <c r="E478" s="18" t="n"/>
+          <t>使用存儲帳戶密鑰時，請考慮啟用“金鑰過期策略”</t>
+        </is>
+      </c>
+      <c r="E478" s="18" t="inlineStr">
+        <is>
+          <t>通過金鑰過期策略，您可以設置帳戶訪問金鑰輪換的提醒。如果指定的時間間隔已過且鍵尚未旋轉，則會顯示提醒。</t>
+        </is>
+      </c>
       <c r="F478" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -25185,7 +25189,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25212,17 +25216,17 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
+          <t>考慮配置 SAS 過期策略</t>
         </is>
       </c>
       <c r="E479" s="18" t="inlineStr">
         <is>
-          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
+          <t>SAS 過期策略指定 SAS 有效的建議時間間隔。SAS 過期策略適用於服務 SAS 或帳戶 SAS。當使用者生成的服務 SAS 或帳戶 SAS 的有效期間隔大於建議的時間間隔時，他們會看到警告。</t>
         </is>
       </c>
       <c r="F479" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -25240,7 +25244,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25267,17 +25271,17 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>爭取縮短臨時 SAS 的有效期</t>
+          <t>考慮將 SAS 連結到儲存存取策略</t>
         </is>
       </c>
       <c r="E480" s="18" t="inlineStr">
         <is>
-          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
+          <t>存儲存取策略提供了撤銷服務 SAS 許可權的選項，而無需重新生成儲存帳戶密鑰。</t>
         </is>
       </c>
       <c r="F480" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -25295,7 +25299,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25322,14 +25326,10 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>將窄範圍應用於SAS</t>
-        </is>
-      </c>
-      <c r="E481" s="18" t="inlineStr">
-        <is>
-          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
-        </is>
-      </c>
+          <t>請考慮配置應用程式的原始程式碼儲存庫，以檢測簽入的連接字串和存儲帳戶密鑰。</t>
+        </is>
+      </c>
+      <c r="E481" s="18" t="n"/>
       <c r="F481" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -25350,7 +25350,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25377,17 +25377,17 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
+          <t>請考慮將連接字串儲存在 Azure KeyVault 中（在無法實現託管標識的情況下）</t>
         </is>
       </c>
       <c r="E482" s="18" t="inlineStr">
         <is>
-          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
+          <t>理想情況下，應用程式應使用託管標識向 Azure 儲存進行身份驗證。如果無法做到這一點，請考慮在 Azure KeyVault 或等效服務中使用存儲憑據（連接字串、存儲帳戶密鑰、SAS、服務主體憑據）。</t>
         </is>
       </c>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25405,7 +25405,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25432,17 +25432,17 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
+          <t>爭取縮短臨時 SAS 的有效期</t>
         </is>
       </c>
       <c r="E483" s="18" t="inlineStr">
         <is>
-          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
+          <t>在臨時 SAS 服務 SAS 或帳戶 SAS 上使用近期過期時間。這樣，即使 SAS 遭到入侵，它也只能在很短的時間內有效。如果無法引用存儲訪問策略，則此做法尤為重要。近期過期時間還通過限制可上傳到 blob 的時間來限制可寫入 blob 的數據量。</t>
         </is>
       </c>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25451,12 +25451,16 @@
         </is>
       </c>
       <c r="H483" s="18" t="n"/>
-      <c r="I483" s="13" t="n"/>
+      <c r="I483" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J483" s="13" t="n"/>
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25483,17 +25487,17 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
+          <t>將窄範圍應用於SAS</t>
         </is>
       </c>
       <c r="E484" s="18" t="inlineStr">
         <is>
-          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
+          <t>創建 SAS 時，請盡可能具體和嚴格。首選單個資源和操作的 SAS，而不是提供更廣泛訪問許可權的 SAS。</t>
         </is>
       </c>
       <c r="F484" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -25511,7 +25515,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25538,10 +25542,14 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
-        </is>
-      </c>
-      <c r="E485" s="18" t="n"/>
+          <t>盡可能考慮將SAS的範圍限定為特定的用戶端IP位址</t>
+        </is>
+      </c>
+      <c r="E485" s="18" t="inlineStr">
+        <is>
+          <t>SAS 可以包含用戶端 IP 位址或位址範圍有權使用 SAS 請求資源的參數。</t>
+        </is>
+      </c>
       <c r="F485" s="18" t="inlineStr">
         <is>
           <t>中等</t>
@@ -25562,7 +25570,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25589,17 +25597,17 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>避免過於寬泛的 CORS 策略</t>
+          <t>請考慮在用戶端使用SAS上傳檔后檢查上傳的數據。</t>
         </is>
       </c>
       <c r="E486" s="18" t="inlineStr">
         <is>
-          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
+          <t>SAS 無法限制用戶端上傳的數據量;考慮到存儲量隨時間變化的定價模型，驗證用戶端是否惡意上傳了大量內容可能是有意義的。</t>
         </is>
       </c>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25608,16 +25616,12 @@
         </is>
       </c>
       <c r="H486" s="18" t="n"/>
-      <c r="I486" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I486" s="13" t="n"/>
       <c r="J486" s="13" t="n"/>
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25644,12 +25648,12 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
+          <t>SFTP：限制 SFTP 訪問的「本地使用者」數量，並審核一段時間內是否需要訪問。</t>
         </is>
       </c>
       <c r="E487" s="18" t="inlineStr">
         <is>
-          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
+          <t>使用「本地使用者帳戶」通過 SFTP 訪問 Blob 儲存時，“通常”RBAC 控制不適用。通過 NFS 或 REST 進行的 Blob 訪問可能比 SFTP 訪問更嚴格。遺憾的是，截至 2023 年初，本地使用者是 SFTP 端點當前支援的唯一身份管理形式</t>
         </is>
       </c>
       <c r="F487" s="18" t="inlineStr">
@@ -25672,7 +25676,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25699,7 +25703,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用平臺加密。</t>
+          <t>SFTP：SFTP 端點不支持類似 POSIX 的 ACL。</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25723,7 +25727,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25750,13 +25754,17 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>確定應使用哪種/是否應使用用戶端加密。</t>
-        </is>
-      </c>
-      <c r="E489" s="18" t="n"/>
+          <t>避免過於寬泛的 CORS 策略</t>
+        </is>
+      </c>
+      <c r="E489" s="18" t="inlineStr">
+        <is>
+          <t>存儲支援 CORS（跨域資源分享），即一種 HTTP 功能，使來自不同域的 Web 應用程式能夠放寬同源策略。啟用 CORS 時，請將 CorsRules 保留為最低許可權。</t>
+        </is>
+      </c>
       <c r="F489" s="18" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -25774,7 +25782,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25801,12 +25809,12 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+          <t>確定應如何加密靜態數據。了解數據的線程模型。</t>
         </is>
       </c>
       <c r="E490" s="18" t="inlineStr">
         <is>
-          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+          <t>靜態數據始終在伺服器端加密，此外也可能在用戶端加密。伺服器端加密可能使用平臺管理的金鑰（預設）或客戶管理的金鑰進行。用戶端加密可以通過讓用戶端按 blob 向 Azure 儲存提供加密/解密金鑰，或者完全在用戶端處理加密來實現。因此，完全不依賴 Azure 存儲來保證機密性。</t>
         </is>
       </c>
       <c r="F490" s="18" t="inlineStr">
@@ -25829,7 +25837,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25839,17 +25847,50 @@
       <c r="Q490" s="20" t="n"/>
     </row>
     <row r="491">
-      <c r="A491" s="18" t="n"/>
-      <c r="B491" s="18" t="n"/>
-      <c r="C491" s="18" t="n"/>
-      <c r="D491" s="18" t="n"/>
+      <c r="A491" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B491" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C491" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D491" s="18" t="inlineStr">
+        <is>
+          <t>確定應使用哪種/是否應使用平臺加密。</t>
+        </is>
+      </c>
       <c r="E491" s="18" t="n"/>
-      <c r="F491" s="18" t="n"/>
+      <c r="F491" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="13" t="n"/>
+      <c r="I491" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
-      <c r="L491" s="19" t="n"/>
+      <c r="L491" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M491" s="20" t="n"/>
       <c r="N491" s="20" t="n"/>
       <c r="O491" s="20" t="n"/>
@@ -25857,17 +25898,50 @@
       <c r="Q491" s="20" t="n"/>
     </row>
     <row r="492">
-      <c r="A492" s="18" t="n"/>
-      <c r="B492" s="18" t="n"/>
-      <c r="C492" s="18" t="n"/>
-      <c r="D492" s="18" t="n"/>
+      <c r="A492" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B492" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C492" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D492" s="18" t="inlineStr">
+        <is>
+          <t>確定應使用哪種/是否應使用用戶端加密。</t>
+        </is>
+      </c>
       <c r="E492" s="18" t="n"/>
-      <c r="F492" s="18" t="n"/>
+      <c r="F492" s="18" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H492" s="18" t="n"/>
-      <c r="I492" s="13" t="n"/>
+      <c r="I492" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J492" s="13" t="n"/>
       <c r="K492" s="19" t="n"/>
-      <c r="L492" s="19" t="n"/>
+      <c r="L492" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M492" s="20" t="n"/>
       <c r="N492" s="20" t="n"/>
       <c r="O492" s="20" t="n"/>
@@ -25875,17 +25949,54 @@
       <c r="Q492" s="20" t="n"/>
     </row>
     <row r="493">
-      <c r="A493" s="18" t="n"/>
-      <c r="B493" s="18" t="n"/>
-      <c r="C493" s="18" t="n"/>
-      <c r="D493" s="18" t="n"/>
-      <c r="E493" s="18" t="n"/>
-      <c r="F493" s="18" t="n"/>
+      <c r="A493" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B493" s="18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C493" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D493" s="18" t="inlineStr">
+        <is>
+          <t>考慮是否需要公共 blob 訪問，或者是否可以對某些存儲帳戶禁用公共 blob 訪問。</t>
+        </is>
+      </c>
+      <c r="E493" s="18" t="inlineStr">
+        <is>
+          <t>利用 Resource Graph 資源管理器（資源 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true）查找允許匿名 blob 訪問的存儲帳戶。</t>
+        </is>
+      </c>
+      <c r="F493" s="18" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="H493" s="18" t="n"/>
-      <c r="I493" s="13" t="n"/>
+      <c r="I493" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J493" s="13" t="n"/>
       <c r="K493" s="19" t="n"/>
-      <c r="L493" s="19" t="n"/>
+      <c r="L493" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M493" s="20" t="n"/>
       <c r="N493" s="20" t="n"/>
       <c r="O493" s="20" t="n"/>
@@ -38853,7 +38964,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G494" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39084,9 +39195,9 @@
     <hyperlink ref="I325" r:id="rId224"/>
     <hyperlink ref="I326" r:id="rId225"/>
     <hyperlink ref="I327" r:id="rId226"/>
-    <hyperlink ref="I329" r:id="rId227"/>
-    <hyperlink ref="I330" r:id="rId228"/>
-    <hyperlink ref="I331" r:id="rId229"/>
+    <hyperlink ref="I328" r:id="rId227"/>
+    <hyperlink ref="I329" r:id="rId228"/>
+    <hyperlink ref="I330" r:id="rId229"/>
     <hyperlink ref="I332" r:id="rId230"/>
     <hyperlink ref="I333" r:id="rId231"/>
     <hyperlink ref="I334" r:id="rId232"/>
@@ -39109,9 +39220,9 @@
     <hyperlink ref="I351" r:id="rId249"/>
     <hyperlink ref="I352" r:id="rId250"/>
     <hyperlink ref="I353" r:id="rId251"/>
-    <hyperlink ref="I355" r:id="rId252"/>
-    <hyperlink ref="I356" r:id="rId253"/>
-    <hyperlink ref="I357" r:id="rId254"/>
+    <hyperlink ref="I354" r:id="rId252"/>
+    <hyperlink ref="I355" r:id="rId253"/>
+    <hyperlink ref="I356" r:id="rId254"/>
     <hyperlink ref="I358" r:id="rId255"/>
     <hyperlink ref="I359" r:id="rId256"/>
     <hyperlink ref="I360" r:id="rId257"/>
@@ -39225,9 +39336,9 @@
     <hyperlink ref="I468" r:id="rId365"/>
     <hyperlink ref="I469" r:id="rId366"/>
     <hyperlink ref="I470" r:id="rId367"/>
-    <hyperlink ref="I472" r:id="rId368"/>
-    <hyperlink ref="I473" r:id="rId369"/>
-    <hyperlink ref="I474" r:id="rId370"/>
+    <hyperlink ref="I471" r:id="rId368"/>
+    <hyperlink ref="I472" r:id="rId369"/>
+    <hyperlink ref="I473" r:id="rId370"/>
     <hyperlink ref="I475" r:id="rId371"/>
     <hyperlink ref="I476" r:id="rId372"/>
     <hyperlink ref="I477" r:id="rId373"/>
@@ -39236,13 +39347,16 @@
     <hyperlink ref="I480" r:id="rId376"/>
     <hyperlink ref="I481" r:id="rId377"/>
     <hyperlink ref="I482" r:id="rId378"/>
-    <hyperlink ref="I484" r:id="rId379"/>
-    <hyperlink ref="I485" r:id="rId380"/>
-    <hyperlink ref="I486" r:id="rId381"/>
+    <hyperlink ref="I483" r:id="rId379"/>
+    <hyperlink ref="I484" r:id="rId380"/>
+    <hyperlink ref="I485" r:id="rId381"/>
     <hyperlink ref="I487" r:id="rId382"/>
     <hyperlink ref="I488" r:id="rId383"/>
     <hyperlink ref="I489" r:id="rId384"/>
     <hyperlink ref="I490" r:id="rId385"/>
+    <hyperlink ref="I491" r:id="rId386"/>
+    <hyperlink ref="I492" r:id="rId387"/>
+    <hyperlink ref="I493" r:id="rId388"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
